--- a/data/Mobility_indicators.xlsx
+++ b/data/Mobility_indicators.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>gis_id</t>
   </si>
@@ -99,10 +99,22 @@
     <t>feet of sidewalks (rank 4) in a BG, divided by the areaa of the BG</t>
   </si>
   <si>
-    <t xml:space="preserve">for each BG centroid, the average driving time to points around the city divided by the average time by public transit </t>
+    <t>indicator_name</t>
   </si>
   <si>
-    <t>indicator_name</t>
+    <t>avg_transit_time</t>
+  </si>
+  <si>
+    <t>avg_driving_time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">for each BG centroid, the average driving time to points around the city </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for each BG centroid, the average public transit time to points around the city </t>
+  </si>
+  <si>
+    <t>for each BG centroid, the average driving time to points around the city divided by the average time by public transit (avg_driving_time/avg_transit_time)</t>
   </si>
 </sst>
 </file>
@@ -446,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N483"/>
+  <dimension ref="A1:P483"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,7 +469,7 @@
     <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +512,14 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>530330001001</v>
       </c>
@@ -544,8 +562,14 @@
       <c r="N2">
         <v>0.34848484848484851</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O2">
+        <v>23</v>
+      </c>
+      <c r="P2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>530330001002</v>
       </c>
@@ -588,8 +612,14 @@
       <c r="N3">
         <v>0.3728813559322034</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <v>22</v>
+      </c>
+      <c r="P3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>530330001003</v>
       </c>
@@ -632,8 +662,14 @@
       <c r="N4">
         <v>0.37931034482758619</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O4">
+        <v>22</v>
+      </c>
+      <c r="P4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>530330001004</v>
       </c>
@@ -676,8 +712,14 @@
       <c r="N5">
         <v>0.37704918032786883</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O5">
+        <v>23</v>
+      </c>
+      <c r="P5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>530330001005</v>
       </c>
@@ -720,8 +762,14 @@
       <c r="N6">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O6">
+        <v>21</v>
+      </c>
+      <c r="P6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>530330002001</v>
       </c>
@@ -764,8 +812,14 @@
       <c r="N7">
         <v>0.34848484848484851</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O7">
+        <v>23</v>
+      </c>
+      <c r="P7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>530330002002</v>
       </c>
@@ -808,8 +862,14 @@
       <c r="N8">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O8">
+        <v>22</v>
+      </c>
+      <c r="P8">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>530330002003</v>
       </c>
@@ -852,8 +912,14 @@
       <c r="N9">
         <v>0.29487179487179488</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O9">
+        <v>23</v>
+      </c>
+      <c r="P9">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>530330002004</v>
       </c>
@@ -896,8 +962,14 @@
       <c r="N10">
         <v>0.30136986301369861</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O10">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>530330002005</v>
       </c>
@@ -940,8 +1012,14 @@
       <c r="N11">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O11">
+        <v>21</v>
+      </c>
+      <c r="P11">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>530330002006</v>
       </c>
@@ -984,8 +1062,14 @@
       <c r="N12">
         <v>0.32857142857142857</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O12">
+        <v>23</v>
+      </c>
+      <c r="P12">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>530330003001</v>
       </c>
@@ -1028,8 +1112,14 @@
       <c r="N13">
         <v>0.25974025974025972</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O13">
+        <v>20</v>
+      </c>
+      <c r="P13">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>530330003002</v>
       </c>
@@ -1072,8 +1162,14 @@
       <c r="N14">
         <v>0.32835820895522388</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O14">
+        <v>22</v>
+      </c>
+      <c r="P14">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>530330004011</v>
       </c>
@@ -1116,8 +1212,14 @@
       <c r="N15">
         <v>0.36764705882352944</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>530330004012</v>
       </c>
@@ -1160,8 +1262,14 @@
       <c r="N16">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O16">
+        <v>25</v>
+      </c>
+      <c r="P16">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>530330004013</v>
       </c>
@@ -1204,8 +1312,14 @@
       <c r="N17">
         <v>0.34285714285714286</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O17">
+        <v>24</v>
+      </c>
+      <c r="P17">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>530330004021</v>
       </c>
@@ -1248,8 +1362,14 @@
       <c r="N18">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O18">
+        <v>22</v>
+      </c>
+      <c r="P18">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>530330004022</v>
       </c>
@@ -1292,8 +1412,14 @@
       <c r="N19">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O19">
+        <v>22</v>
+      </c>
+      <c r="P19">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>530330004023</v>
       </c>
@@ -1336,8 +1462,14 @@
       <c r="N20">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O20">
+        <v>21</v>
+      </c>
+      <c r="P20">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>530330004024</v>
       </c>
@@ -1380,8 +1512,14 @@
       <c r="N21">
         <v>0.3235294117647059</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O21">
+        <v>22</v>
+      </c>
+      <c r="P21">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>530330005001</v>
       </c>
@@ -1424,8 +1562,14 @@
       <c r="N22">
         <v>0.31325301204819278</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O22">
+        <v>26</v>
+      </c>
+      <c r="P22">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>530330005002</v>
       </c>
@@ -1468,8 +1612,14 @@
       <c r="N23">
         <v>0.31578947368421051</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O23">
+        <v>24</v>
+      </c>
+      <c r="P23">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>530330005003</v>
       </c>
@@ -1512,8 +1662,14 @@
       <c r="N24">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O24">
+        <v>24</v>
+      </c>
+      <c r="P24">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>530330006001</v>
       </c>
@@ -1556,8 +1712,14 @@
       <c r="N25">
         <v>0.33823529411764708</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O25">
+        <v>23</v>
+      </c>
+      <c r="P25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>530330006002</v>
       </c>
@@ -1600,8 +1762,14 @@
       <c r="N26">
         <v>0.28985507246376813</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O26">
+        <v>20</v>
+      </c>
+      <c r="P26">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>530330006003</v>
       </c>
@@ -1644,8 +1812,14 @@
       <c r="N27">
         <v>0.328125</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O27">
+        <v>21</v>
+      </c>
+      <c r="P27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>530330006004</v>
       </c>
@@ -1688,8 +1862,14 @@
       <c r="N28">
         <v>0.32258064516129031</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O28">
+        <v>20</v>
+      </c>
+      <c r="P28">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>530330006005</v>
       </c>
@@ -1732,8 +1912,14 @@
       <c r="N29">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O29">
+        <v>21</v>
+      </c>
+      <c r="P29">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>530330006006</v>
       </c>
@@ -1776,8 +1962,14 @@
       <c r="N30">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O30">
+        <v>20</v>
+      </c>
+      <c r="P30">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>530330007001</v>
       </c>
@@ -1820,8 +2012,14 @@
       <c r="N31">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O31">
+        <v>21</v>
+      </c>
+      <c r="P31">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>530330007002</v>
       </c>
@@ -1864,8 +2062,14 @@
       <c r="N32">
         <v>0.37096774193548387</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O32">
+        <v>23</v>
+      </c>
+      <c r="P32">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>530330007003</v>
       </c>
@@ -1908,8 +2112,14 @@
       <c r="N33">
         <v>0.31343283582089554</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O33">
+        <v>21</v>
+      </c>
+      <c r="P33">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>530330007004</v>
       </c>
@@ -1952,8 +2162,14 @@
       <c r="N34">
         <v>0.30303030303030304</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O34">
+        <v>20</v>
+      </c>
+      <c r="P34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>530330008001</v>
       </c>
@@ -1996,8 +2212,14 @@
       <c r="N35">
         <v>0.31343283582089554</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O35">
+        <v>21</v>
+      </c>
+      <c r="P35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>530330008002</v>
       </c>
@@ -2040,8 +2262,14 @@
       <c r="N36">
         <v>0.30882352941176472</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O36">
+        <v>21</v>
+      </c>
+      <c r="P36">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>530330009001</v>
       </c>
@@ -2084,8 +2312,14 @@
       <c r="N37">
         <v>0.31428571428571428</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O37">
+        <v>22</v>
+      </c>
+      <c r="P37">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>530330009002</v>
       </c>
@@ -2128,8 +2362,14 @@
       <c r="N38">
         <v>0.28767123287671231</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O38">
+        <v>21</v>
+      </c>
+      <c r="P38">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>530330010001</v>
       </c>
@@ -2172,8 +2412,14 @@
       <c r="N39">
         <v>0.29411764705882354</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O39">
+        <v>20</v>
+      </c>
+      <c r="P39">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>530330010002</v>
       </c>
@@ -2216,8 +2462,14 @@
       <c r="N40">
         <v>0.27941176470588236</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O40">
+        <v>19</v>
+      </c>
+      <c r="P40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>530330011001</v>
       </c>
@@ -2260,8 +2512,14 @@
       <c r="N41">
         <v>0.28358208955223879</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O41">
+        <v>19</v>
+      </c>
+      <c r="P41">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>530330011002</v>
       </c>
@@ -2304,8 +2562,14 @@
       <c r="N42">
         <v>0.28358208955223879</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O42">
+        <v>19</v>
+      </c>
+      <c r="P42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>530330012001</v>
       </c>
@@ -2348,8 +2612,14 @@
       <c r="N43">
         <v>0.27692307692307694</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O43">
+        <v>18</v>
+      </c>
+      <c r="P43">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>530330012002</v>
       </c>
@@ -2392,8 +2662,14 @@
       <c r="N44">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O44">
+        <v>19</v>
+      </c>
+      <c r="P44">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>530330012003</v>
       </c>
@@ -2436,8 +2712,14 @@
       <c r="N45">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O45">
+        <v>21</v>
+      </c>
+      <c r="P45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>530330012004</v>
       </c>
@@ -2480,8 +2762,14 @@
       <c r="N46">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O46">
+        <v>22</v>
+      </c>
+      <c r="P46">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>530330012005</v>
       </c>
@@ -2524,8 +2812,14 @@
       <c r="N47">
         <v>0.26153846153846155</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O47">
+        <v>17</v>
+      </c>
+      <c r="P47">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>530330013001</v>
       </c>
@@ -2568,8 +2862,14 @@
       <c r="N48">
         <v>0.31147540983606559</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O48">
+        <v>19</v>
+      </c>
+      <c r="P48">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>530330013002</v>
       </c>
@@ -2612,8 +2912,14 @@
       <c r="N49">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O49">
+        <v>20</v>
+      </c>
+      <c r="P49">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>530330013003</v>
       </c>
@@ -2656,8 +2962,14 @@
       <c r="N50">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O50">
+        <v>19</v>
+      </c>
+      <c r="P50">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>530330014001</v>
       </c>
@@ -2700,8 +3012,14 @@
       <c r="N51">
         <v>0.328125</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O51">
+        <v>21</v>
+      </c>
+      <c r="P51">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>530330014002</v>
       </c>
@@ -2744,8 +3062,14 @@
       <c r="N52">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O52">
+        <v>22</v>
+      </c>
+      <c r="P52">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>530330014003</v>
       </c>
@@ -2788,8 +3112,14 @@
       <c r="N53">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O53">
+        <v>22</v>
+      </c>
+      <c r="P53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>530330014004</v>
       </c>
@@ -2832,8 +3162,14 @@
       <c r="N54">
         <v>0.32857142857142857</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O54">
+        <v>23</v>
+      </c>
+      <c r="P54">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>530330015001</v>
       </c>
@@ -2876,8 +3212,14 @@
       <c r="N55">
         <v>0.31707317073170732</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O55">
+        <v>26</v>
+      </c>
+      <c r="P55">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>530330015002</v>
       </c>
@@ -2920,8 +3262,14 @@
       <c r="N56">
         <v>0.35616438356164382</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O56">
+        <v>26</v>
+      </c>
+      <c r="P56">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>530330016001</v>
       </c>
@@ -2964,8 +3312,14 @@
       <c r="N57">
         <v>0.32432432432432434</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O57">
+        <v>24</v>
+      </c>
+      <c r="P57">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>530330016002</v>
       </c>
@@ -3008,8 +3362,14 @@
       <c r="N58">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O58">
+        <v>25</v>
+      </c>
+      <c r="P58">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>530330016003</v>
       </c>
@@ -3052,8 +3412,14 @@
       <c r="N59">
         <v>0.37704918032786883</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O59">
+        <v>23</v>
+      </c>
+      <c r="P59">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>530330017011</v>
       </c>
@@ -3096,8 +3462,14 @@
       <c r="N60">
         <v>0.32203389830508472</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O60">
+        <v>19</v>
+      </c>
+      <c r="P60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>530330017012</v>
       </c>
@@ -3140,8 +3512,14 @@
       <c r="N61">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O61">
+        <v>19</v>
+      </c>
+      <c r="P61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>530330017013</v>
       </c>
@@ -3184,8 +3562,14 @@
       <c r="N62">
         <v>0.32786885245901637</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O62">
+        <v>20</v>
+      </c>
+      <c r="P62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>530330017021</v>
       </c>
@@ -3228,8 +3612,14 @@
       <c r="N63">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O63">
+        <v>20</v>
+      </c>
+      <c r="P63">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>530330017022</v>
       </c>
@@ -3272,8 +3662,14 @@
       <c r="N64">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O64">
+        <v>21</v>
+      </c>
+      <c r="P64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>530330017023</v>
       </c>
@@ -3316,8 +3712,14 @@
       <c r="N65">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O65">
+        <v>21</v>
+      </c>
+      <c r="P65">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>530330017024</v>
       </c>
@@ -3360,8 +3762,14 @@
       <c r="N66">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O66">
+        <v>20</v>
+      </c>
+      <c r="P66">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>530330018001</v>
       </c>
@@ -3404,8 +3812,14 @@
       <c r="N67">
         <v>0.29310344827586204</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O67">
+        <v>17</v>
+      </c>
+      <c r="P67">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>530330018002</v>
       </c>
@@ -3448,8 +3862,14 @@
       <c r="N68">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O68">
+        <v>17</v>
+      </c>
+      <c r="P68">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>530330018003</v>
       </c>
@@ -3492,8 +3912,14 @@
       <c r="N69">
         <v>0.32727272727272727</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O69">
+        <v>18</v>
+      </c>
+      <c r="P69">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>530330019001</v>
       </c>
@@ -3536,8 +3962,14 @@
       <c r="N70">
         <v>0.32203389830508472</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O70">
+        <v>19</v>
+      </c>
+      <c r="P70">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>530330019002</v>
       </c>
@@ -3580,8 +4012,14 @@
       <c r="N71">
         <v>0.26984126984126983</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O71">
+        <v>17</v>
+      </c>
+      <c r="P71">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>530330019003</v>
       </c>
@@ -3624,8 +4062,14 @@
       <c r="N72">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O72">
+        <v>18</v>
+      </c>
+      <c r="P72">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>530330020001</v>
       </c>
@@ -3668,8 +4112,14 @@
       <c r="N73">
         <v>0.2982456140350877</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O73">
+        <v>17</v>
+      </c>
+      <c r="P73">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>530330020002</v>
       </c>
@@ -3712,8 +4162,14 @@
       <c r="N74">
         <v>0.26984126984126983</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O74">
+        <v>17</v>
+      </c>
+      <c r="P74">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>530330020003</v>
       </c>
@@ -3756,8 +4212,14 @@
       <c r="N75">
         <v>0.28333333333333333</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O75">
+        <v>17</v>
+      </c>
+      <c r="P75">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>530330021001</v>
       </c>
@@ -3800,8 +4262,14 @@
       <c r="N76">
         <v>0.28358208955223879</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O76">
+        <v>19</v>
+      </c>
+      <c r="P76">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>530330021002</v>
       </c>
@@ -3844,8 +4312,14 @@
       <c r="N77">
         <v>0.27692307692307694</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O77">
+        <v>18</v>
+      </c>
+      <c r="P77">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>530330021003</v>
       </c>
@@ -3888,8 +4362,14 @@
       <c r="N78">
         <v>0.29032258064516131</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O78">
+        <v>18</v>
+      </c>
+      <c r="P78">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>530330022001</v>
       </c>
@@ -3932,8 +4412,14 @@
       <c r="N79">
         <v>0.28767123287671231</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O79">
+        <v>21</v>
+      </c>
+      <c r="P79">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>530330022002</v>
       </c>
@@ -3976,8 +4462,14 @@
       <c r="N80">
         <v>0.28985507246376813</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O80">
+        <v>20</v>
+      </c>
+      <c r="P80">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>530330022003</v>
       </c>
@@ -4020,8 +4512,14 @@
       <c r="N81">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O81">
+        <v>21</v>
+      </c>
+      <c r="P81">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>530330022004</v>
       </c>
@@ -4064,8 +4562,14 @@
       <c r="N82">
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O82">
+        <v>21</v>
+      </c>
+      <c r="P82">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>530330024001</v>
       </c>
@@ -4108,8 +4612,14 @@
       <c r="N83">
         <v>0.27397260273972601</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O83">
+        <v>20</v>
+      </c>
+      <c r="P83">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>530330024002</v>
       </c>
@@ -4152,8 +4662,14 @@
       <c r="N84">
         <v>0.30158730158730157</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O84">
+        <v>19</v>
+      </c>
+      <c r="P84">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>530330024003</v>
       </c>
@@ -4196,8 +4712,14 @@
       <c r="N85">
         <v>0.26865671641791045</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O85">
+        <v>18</v>
+      </c>
+      <c r="P85">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>530330025001</v>
       </c>
@@ -4240,8 +4762,14 @@
       <c r="N86">
         <v>0.28333333333333333</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O86">
+        <v>17</v>
+      </c>
+      <c r="P86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>530330025002</v>
       </c>
@@ -4284,8 +4812,14 @@
       <c r="N87">
         <v>0.33962264150943394</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O87">
+        <v>18</v>
+      </c>
+      <c r="P87">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>530330026001</v>
       </c>
@@ -4328,8 +4862,14 @@
       <c r="N88">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O88">
+        <v>16</v>
+      </c>
+      <c r="P88">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>530330026002</v>
       </c>
@@ -4372,8 +4912,14 @@
       <c r="N89">
         <v>0.27586206896551724</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O89">
+        <v>16</v>
+      </c>
+      <c r="P89">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>530330026003</v>
       </c>
@@ -4416,8 +4962,14 @@
       <c r="N90">
         <v>0.29629629629629628</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O90">
+        <v>16</v>
+      </c>
+      <c r="P90">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>530330026004</v>
       </c>
@@ -4460,8 +5012,14 @@
       <c r="N91">
         <v>0.25862068965517243</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O91">
+        <v>15</v>
+      </c>
+      <c r="P91">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>530330027001</v>
       </c>
@@ -4504,8 +5062,14 @@
       <c r="N92">
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O92">
+        <v>16</v>
+      </c>
+      <c r="P92">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>530330027002</v>
       </c>
@@ -4548,8 +5112,14 @@
       <c r="N93">
         <v>0.25806451612903225</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O93">
+        <v>16</v>
+      </c>
+      <c r="P93">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>530330027003</v>
       </c>
@@ -4592,8 +5162,14 @@
       <c r="N94">
         <v>0.28813559322033899</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O94">
+        <v>17</v>
+      </c>
+      <c r="P94">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>530330027004</v>
       </c>
@@ -4636,8 +5212,14 @@
       <c r="N95">
         <v>0.30909090909090908</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O95">
+        <v>17</v>
+      </c>
+      <c r="P95">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>530330028001</v>
       </c>
@@ -4680,8 +5262,14 @@
       <c r="N96">
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O96">
+        <v>18</v>
+      </c>
+      <c r="P96">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>530330028002</v>
       </c>
@@ -4724,8 +5312,14 @@
       <c r="N97">
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O97">
+        <v>18</v>
+      </c>
+      <c r="P97">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>530330028003</v>
       </c>
@@ -4768,8 +5362,14 @@
       <c r="N98">
         <v>0.31578947368421051</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O98">
+        <v>18</v>
+      </c>
+      <c r="P98">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>530330028004</v>
       </c>
@@ -4812,8 +5412,14 @@
       <c r="N99">
         <v>0.31578947368421051</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O99">
+        <v>18</v>
+      </c>
+      <c r="P99">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>530330029001</v>
       </c>
@@ -4856,8 +5462,14 @@
       <c r="N100">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O100">
+        <v>19</v>
+      </c>
+      <c r="P100">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>530330029002</v>
       </c>
@@ -4900,8 +5512,14 @@
       <c r="N101">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O101">
+        <v>19</v>
+      </c>
+      <c r="P101">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>530330029003</v>
       </c>
@@ -4944,8 +5562,14 @@
       <c r="N102">
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O102">
+        <v>20</v>
+      </c>
+      <c r="P102">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>530330030001</v>
       </c>
@@ -4988,8 +5612,14 @@
       <c r="N103">
         <v>0.43478260869565216</v>
       </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O103">
+        <v>20</v>
+      </c>
+      <c r="P103">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>530330030002</v>
       </c>
@@ -5032,8 +5662,14 @@
       <c r="N104">
         <v>0.36065573770491804</v>
       </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O104">
+        <v>22</v>
+      </c>
+      <c r="P104">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>530330030003</v>
       </c>
@@ -5076,8 +5712,14 @@
       <c r="N105">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O105">
+        <v>21</v>
+      </c>
+      <c r="P105">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>530330030004</v>
       </c>
@@ -5120,8 +5762,14 @@
       <c r="N106">
         <v>0.36507936507936506</v>
       </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O106">
+        <v>23</v>
+      </c>
+      <c r="P106">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>530330031001</v>
       </c>
@@ -5164,8 +5812,14 @@
       <c r="N107">
         <v>0.35384615384615387</v>
       </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O107">
+        <v>23</v>
+      </c>
+      <c r="P107">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>530330031002</v>
       </c>
@@ -5208,8 +5862,14 @@
       <c r="N108">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O108">
+        <v>24</v>
+      </c>
+      <c r="P108">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>530330031003</v>
       </c>
@@ -5252,8 +5912,14 @@
       <c r="N109">
         <v>0.36923076923076925</v>
       </c>
-    </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O109">
+        <v>24</v>
+      </c>
+      <c r="P109">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>530330031004</v>
       </c>
@@ -5296,8 +5962,14 @@
       <c r="N110">
         <v>0.36231884057971014</v>
       </c>
-    </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O110">
+        <v>25</v>
+      </c>
+      <c r="P110">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>530330031005</v>
       </c>
@@ -5340,8 +6012,14 @@
       <c r="N111">
         <v>0.33783783783783783</v>
       </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O111">
+        <v>25</v>
+      </c>
+      <c r="P111">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>530330032001</v>
       </c>
@@ -5384,8 +6062,14 @@
       <c r="N112">
         <v>0.36923076923076925</v>
       </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O112">
+        <v>24</v>
+      </c>
+      <c r="P112">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>530330032002</v>
       </c>
@@ -5428,8 +6112,14 @@
       <c r="N113">
         <v>0.38095238095238093</v>
       </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O113">
+        <v>24</v>
+      </c>
+      <c r="P113">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>530330032003</v>
       </c>
@@ -5472,8 +6162,14 @@
       <c r="N114">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O114">
+        <v>22</v>
+      </c>
+      <c r="P114">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>530330032004</v>
       </c>
@@ -5516,8 +6212,14 @@
       <c r="N115">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O115">
+        <v>23</v>
+      </c>
+      <c r="P115">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>530330032005</v>
       </c>
@@ -5560,8 +6262,14 @@
       <c r="N116">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O116">
+        <v>24</v>
+      </c>
+      <c r="P116">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>530330032006</v>
       </c>
@@ -5604,8 +6312,14 @@
       <c r="N117">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O117">
+        <v>25</v>
+      </c>
+      <c r="P117">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>530330032007</v>
       </c>
@@ -5648,8 +6362,14 @@
       <c r="N118">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O118">
+        <v>25</v>
+      </c>
+      <c r="P118">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>530330033001</v>
       </c>
@@ -5692,8 +6412,14 @@
       <c r="N119">
         <v>0.33870967741935482</v>
       </c>
-    </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O119">
+        <v>21</v>
+      </c>
+      <c r="P119">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>530330033002</v>
       </c>
@@ -5736,8 +6462,14 @@
       <c r="N120">
         <v>0.40425531914893614</v>
       </c>
-    </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O120">
+        <v>19</v>
+      </c>
+      <c r="P120">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>530330033003</v>
       </c>
@@ -5780,8 +6512,14 @@
       <c r="N121">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O121">
+        <v>21</v>
+      </c>
+      <c r="P121">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>530330033004</v>
       </c>
@@ -5824,8 +6562,14 @@
       <c r="N122">
         <v>0.36507936507936506</v>
       </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O122">
+        <v>23</v>
+      </c>
+      <c r="P122">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>530330033005</v>
       </c>
@@ -5868,8 +6612,14 @@
       <c r="N123">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O123">
+        <v>22</v>
+      </c>
+      <c r="P123">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>530330034001</v>
       </c>
@@ -5912,8 +6662,14 @@
       <c r="N124">
         <v>0.38297872340425532</v>
       </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O124">
+        <v>18</v>
+      </c>
+      <c r="P124">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>530330034002</v>
       </c>
@@ -5956,8 +6712,14 @@
       <c r="N125">
         <v>0.42222222222222222</v>
       </c>
-    </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O125">
+        <v>19</v>
+      </c>
+      <c r="P125">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>530330034003</v>
       </c>
@@ -6000,8 +6762,14 @@
       <c r="N126">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O126">
+        <v>18</v>
+      </c>
+      <c r="P126">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>530330035001</v>
       </c>
@@ -6044,8 +6812,14 @@
       <c r="N127">
         <v>0.30909090909090908</v>
       </c>
-    </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O127">
+        <v>17</v>
+      </c>
+      <c r="P127">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>530330035002</v>
       </c>
@@ -6088,8 +6862,14 @@
       <c r="N128">
         <v>0.29310344827586204</v>
       </c>
-    </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O128">
+        <v>17</v>
+      </c>
+      <c r="P128">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>530330035003</v>
       </c>
@@ -6132,8 +6912,14 @@
       <c r="N129">
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O129">
+        <v>18</v>
+      </c>
+      <c r="P129">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>530330036001</v>
       </c>
@@ -6176,8 +6962,14 @@
       <c r="N130">
         <v>0.30909090909090908</v>
       </c>
-    </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O130">
+        <v>17</v>
+      </c>
+      <c r="P130">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>530330036002</v>
       </c>
@@ -6220,8 +7012,14 @@
       <c r="N131">
         <v>0.27586206896551724</v>
       </c>
-    </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O131">
+        <v>16</v>
+      </c>
+      <c r="P131">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>530330036003</v>
       </c>
@@ -6264,8 +7062,14 @@
       <c r="N132">
         <v>0.30508474576271188</v>
       </c>
-    </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O132">
+        <v>18</v>
+      </c>
+      <c r="P132">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>530330036004</v>
       </c>
@@ -6308,8 +7112,14 @@
       <c r="N133">
         <v>0.2982456140350877</v>
       </c>
-    </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O133">
+        <v>17</v>
+      </c>
+      <c r="P133">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>530330038001</v>
       </c>
@@ -6352,8 +7162,14 @@
       <c r="N134">
         <v>0.35849056603773582</v>
       </c>
-    </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O134">
+        <v>19</v>
+      </c>
+      <c r="P134">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>530330038002</v>
       </c>
@@ -6396,8 +7212,14 @@
       <c r="N135">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O135">
+        <v>18</v>
+      </c>
+      <c r="P135">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>530330039001</v>
       </c>
@@ -6440,8 +7262,14 @@
       <c r="N136">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O136">
+        <v>19</v>
+      </c>
+      <c r="P136">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>530330039002</v>
       </c>
@@ -6484,8 +7312,14 @@
       <c r="N137">
         <v>0.37735849056603776</v>
       </c>
-    </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O137">
+        <v>20</v>
+      </c>
+      <c r="P137">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>530330040001</v>
       </c>
@@ -6528,8 +7362,14 @@
       <c r="N138">
         <v>0.34722222222222221</v>
       </c>
-    </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O138">
+        <v>25</v>
+      </c>
+      <c r="P138">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>530330040002</v>
       </c>
@@ -6572,8 +7412,14 @@
       <c r="N139">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O139">
+        <v>21</v>
+      </c>
+      <c r="P139">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>530330041001</v>
       </c>
@@ -6616,8 +7462,14 @@
       <c r="N140">
         <v>0.31428571428571428</v>
       </c>
-    </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O140">
+        <v>22</v>
+      </c>
+      <c r="P140">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>530330041002</v>
       </c>
@@ -6660,8 +7512,14 @@
       <c r="N141">
         <v>0.30985915492957744</v>
       </c>
-    </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O141">
+        <v>22</v>
+      </c>
+      <c r="P141">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>530330041003</v>
       </c>
@@ -6704,8 +7562,14 @@
       <c r="N142">
         <v>0.27777777777777779</v>
       </c>
-    </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O142">
+        <v>20</v>
+      </c>
+      <c r="P142">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>530330041004</v>
       </c>
@@ -6748,8 +7612,14 @@
       <c r="N143">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O143">
+        <v>20</v>
+      </c>
+      <c r="P143">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>530330041005</v>
       </c>
@@ -6792,8 +7662,14 @@
       <c r="N144">
         <v>0.2878787878787879</v>
       </c>
-    </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O144">
+        <v>19</v>
+      </c>
+      <c r="P144">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>530330041006</v>
       </c>
@@ -6836,8 +7712,14 @@
       <c r="N145">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O145">
+        <v>21</v>
+      </c>
+      <c r="P145">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>530330042001</v>
       </c>
@@ -6880,8 +7762,14 @@
       <c r="N146">
         <v>0.31343283582089554</v>
       </c>
-    </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O146">
+        <v>21</v>
+      </c>
+      <c r="P146">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>530330042002</v>
       </c>
@@ -6924,8 +7812,14 @@
       <c r="N147">
         <v>0.328125</v>
       </c>
-    </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O147">
+        <v>21</v>
+      </c>
+      <c r="P147">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>530330042003</v>
       </c>
@@ -6968,8 +7862,14 @@
       <c r="N148">
         <v>0.29032258064516131</v>
       </c>
-    </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O148">
+        <v>18</v>
+      </c>
+      <c r="P148">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>530330042004</v>
       </c>
@@ -7012,8 +7912,14 @@
       <c r="N149">
         <v>0.35087719298245612</v>
       </c>
-    </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O149">
+        <v>20</v>
+      </c>
+      <c r="P149">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>530330042005</v>
       </c>
@@ -7056,8 +7962,14 @@
       <c r="N150">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O150">
+        <v>20</v>
+      </c>
+      <c r="P150">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>530330043011</v>
       </c>
@@ -7100,8 +8012,14 @@
       <c r="N151">
         <v>0.32758620689655171</v>
       </c>
-    </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O151">
+        <v>19</v>
+      </c>
+      <c r="P151">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>530330043012</v>
       </c>
@@ -7144,8 +8062,14 @@
       <c r="N152">
         <v>0.35849056603773582</v>
       </c>
-    </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O152">
+        <v>19</v>
+      </c>
+      <c r="P152">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>530330043013</v>
       </c>
@@ -7188,8 +8112,14 @@
       <c r="N153">
         <v>0.35087719298245612</v>
       </c>
-    </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O153">
+        <v>20</v>
+      </c>
+      <c r="P153">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>530330043021</v>
       </c>
@@ -7232,8 +8162,14 @@
       <c r="N154">
         <v>0.30508474576271188</v>
       </c>
-    </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O154">
+        <v>18</v>
+      </c>
+      <c r="P154">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>530330043022</v>
       </c>
@@ -7276,8 +8212,14 @@
       <c r="N155">
         <v>0.34545454545454546</v>
       </c>
-    </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O155">
+        <v>19</v>
+      </c>
+      <c r="P155">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>530330044001</v>
       </c>
@@ -7320,8 +8262,14 @@
       <c r="N156">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O156">
+        <v>19</v>
+      </c>
+      <c r="P156">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>530330044002</v>
       </c>
@@ -7364,8 +8312,14 @@
       <c r="N157">
         <v>0.32727272727272727</v>
       </c>
-    </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O157">
+        <v>18</v>
+      </c>
+      <c r="P157">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>530330044003</v>
       </c>
@@ -7408,8 +8362,14 @@
       <c r="N158">
         <v>0.32758620689655171</v>
       </c>
-    </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O158">
+        <v>19</v>
+      </c>
+      <c r="P158">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>530330044004</v>
       </c>
@@ -7452,8 +8412,14 @@
       <c r="N159">
         <v>0.29310344827586204</v>
       </c>
-    </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O159">
+        <v>17</v>
+      </c>
+      <c r="P159">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A160" s="1">
         <v>530330045001</v>
       </c>
@@ -7496,8 +8462,14 @@
       <c r="N160">
         <v>0.2711864406779661</v>
       </c>
-    </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O160">
+        <v>16</v>
+      </c>
+      <c r="P160">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A161" s="1">
         <v>530330045002</v>
       </c>
@@ -7540,8 +8512,14 @@
       <c r="N161">
         <v>0.26315789473684209</v>
       </c>
-    </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O161">
+        <v>15</v>
+      </c>
+      <c r="P161">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A162" s="1">
         <v>530330046001</v>
       </c>
@@ -7584,8 +8562,14 @@
       <c r="N162">
         <v>0.28333333333333333</v>
       </c>
-    </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O162">
+        <v>17</v>
+      </c>
+      <c r="P162">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A163" s="1">
         <v>530330046002</v>
       </c>
@@ -7628,8 +8612,14 @@
       <c r="N163">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O163">
+        <v>17</v>
+      </c>
+      <c r="P163">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A164" s="1">
         <v>530330046003</v>
       </c>
@@ -7672,8 +8662,14 @@
       <c r="N164">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O164">
+        <v>16</v>
+      </c>
+      <c r="P164">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A165" s="1">
         <v>530330047001</v>
       </c>
@@ -7716,8 +8712,14 @@
       <c r="N165">
         <v>0.41304347826086957</v>
       </c>
-    </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O165">
+        <v>19</v>
+      </c>
+      <c r="P165">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A166" s="1">
         <v>530330047002</v>
       </c>
@@ -7760,8 +8762,14 @@
       <c r="N166">
         <v>0.36538461538461536</v>
       </c>
-    </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O166">
+        <v>19</v>
+      </c>
+      <c r="P166">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A167" s="1">
         <v>530330047003</v>
       </c>
@@ -7804,8 +8812,14 @@
       <c r="N167">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O167">
+        <v>21</v>
+      </c>
+      <c r="P167">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A168" s="1">
         <v>530330047004</v>
       </c>
@@ -7848,8 +8862,14 @@
       <c r="N168">
         <v>0.38181818181818183</v>
       </c>
-    </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O168">
+        <v>21</v>
+      </c>
+      <c r="P168">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A169" s="1">
         <v>530330048001</v>
       </c>
@@ -7892,8 +8912,14 @@
       <c r="N169">
         <v>0.30357142857142855</v>
       </c>
-    </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O169">
+        <v>17</v>
+      </c>
+      <c r="P169">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A170" s="1">
         <v>530330048002</v>
       </c>
@@ -7936,8 +8962,14 @@
       <c r="N170">
         <v>0.40909090909090912</v>
       </c>
-    </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O170">
+        <v>18</v>
+      </c>
+      <c r="P170">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A171" s="1">
         <v>530330048003</v>
       </c>
@@ -7980,8 +9012,14 @@
       <c r="N171">
         <v>0.38297872340425532</v>
       </c>
-    </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O171">
+        <v>18</v>
+      </c>
+      <c r="P171">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A172" s="1">
         <v>530330048004</v>
       </c>
@@ -8024,8 +9062,14 @@
       <c r="N172">
         <v>0.42857142857142855</v>
       </c>
-    </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O172">
+        <v>18</v>
+      </c>
+      <c r="P172">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A173" s="1">
         <v>530330049001</v>
       </c>
@@ -8068,8 +9112,14 @@
       <c r="N173">
         <v>0.30188679245283018</v>
       </c>
-    </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O173">
+        <v>16</v>
+      </c>
+      <c r="P173">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A174" s="1">
         <v>530330049002</v>
       </c>
@@ -8112,8 +9162,14 @@
       <c r="N174">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O174">
+        <v>16</v>
+      </c>
+      <c r="P174">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A175" s="1">
         <v>530330049003</v>
       </c>
@@ -8156,8 +9212,14 @@
       <c r="N175">
         <v>0.39534883720930231</v>
       </c>
-    </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O175">
+        <v>17</v>
+      </c>
+      <c r="P175">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A176" s="1">
         <v>530330049004</v>
       </c>
@@ -8200,8 +9262,14 @@
       <c r="N176">
         <v>0.31372549019607843</v>
       </c>
-    </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O176">
+        <v>16</v>
+      </c>
+      <c r="P176">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A177" s="1">
         <v>530330049005</v>
       </c>
@@ -8244,8 +9312,14 @@
       <c r="N177">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O177">
+        <v>16</v>
+      </c>
+      <c r="P177">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A178" s="1">
         <v>530330050001</v>
       </c>
@@ -8288,8 +9362,14 @@
       <c r="N178">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O178">
+        <v>17</v>
+      </c>
+      <c r="P178">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A179" s="1">
         <v>530330050002</v>
       </c>
@@ -8332,8 +9412,14 @@
       <c r="N179">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O179">
+        <v>17</v>
+      </c>
+      <c r="P179">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A180" s="1">
         <v>530330050003</v>
       </c>
@@ -8376,8 +9462,14 @@
       <c r="N180">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O180">
+        <v>17</v>
+      </c>
+      <c r="P180">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A181" s="1">
         <v>530330051001</v>
       </c>
@@ -8420,8 +9512,14 @@
       <c r="N181">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O181">
+        <v>17</v>
+      </c>
+      <c r="P181">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A182" s="1">
         <v>530330051002</v>
       </c>
@@ -8464,8 +9562,14 @@
       <c r="N182">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O182">
+        <v>17</v>
+      </c>
+      <c r="P182">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A183" s="1">
         <v>530330051003</v>
       </c>
@@ -8508,8 +9612,14 @@
       <c r="N183">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O183">
+        <v>17</v>
+      </c>
+      <c r="P183">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A184" s="1">
         <v>530330052001</v>
       </c>
@@ -8552,8 +9662,14 @@
       <c r="N184">
         <v>0.28301886792452829</v>
       </c>
-    </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O184">
+        <v>15</v>
+      </c>
+      <c r="P184">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A185" s="1">
         <v>530330052002</v>
       </c>
@@ -8596,8 +9712,14 @@
       <c r="N185">
         <v>0.31372549019607843</v>
       </c>
-    </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O185">
+        <v>16</v>
+      </c>
+      <c r="P185">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A186" s="1">
         <v>530330052003</v>
       </c>
@@ -8640,8 +9762,14 @@
       <c r="N186">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O186">
+        <v>16</v>
+      </c>
+      <c r="P186">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A187" s="1">
         <v>530330052004</v>
       </c>
@@ -8684,8 +9812,14 @@
       <c r="N187">
         <v>0.28846153846153844</v>
       </c>
-    </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O187">
+        <v>15</v>
+      </c>
+      <c r="P187">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A188" s="1">
         <v>530330052005</v>
       </c>
@@ -8728,8 +9862,14 @@
       <c r="N188">
         <v>0.27272727272727271</v>
       </c>
-    </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O188">
+        <v>15</v>
+      </c>
+      <c r="P188">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A189" s="1">
         <v>530330053011</v>
       </c>
@@ -8772,8 +9912,14 @@
       <c r="N189">
         <v>0.32727272727272727</v>
       </c>
-    </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O189">
+        <v>18</v>
+      </c>
+      <c r="P189">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A190" s="1">
         <v>530330053012</v>
       </c>
@@ -8816,8 +9962,14 @@
       <c r="N190">
         <v>0.32692307692307693</v>
       </c>
-    </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O190">
+        <v>17</v>
+      </c>
+      <c r="P190">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A191" s="1">
         <v>530330053013</v>
       </c>
@@ -8860,8 +10012,14 @@
       <c r="N191">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O191">
+        <v>16</v>
+      </c>
+      <c r="P191">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A192" s="1">
         <v>530330053014</v>
       </c>
@@ -8904,8 +10062,14 @@
       <c r="N192">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O192">
+        <v>17</v>
+      </c>
+      <c r="P192">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A193" s="1">
         <v>530330053021</v>
       </c>
@@ -8948,8 +10112,14 @@
       <c r="N193">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O193">
+        <v>18</v>
+      </c>
+      <c r="P193">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A194" s="1">
         <v>530330053022</v>
       </c>
@@ -8992,8 +10162,14 @@
       <c r="N194">
         <v>0.38297872340425532</v>
       </c>
-    </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O194">
+        <v>18</v>
+      </c>
+      <c r="P194">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A195" s="1">
         <v>530330053023</v>
       </c>
@@ -9036,8 +10212,14 @@
       <c r="N195">
         <v>0.34693877551020408</v>
       </c>
-    </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O195">
+        <v>17</v>
+      </c>
+      <c r="P195">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A196" s="1">
         <v>530330054001</v>
       </c>
@@ -9080,8 +10262,14 @@
       <c r="N196">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O196">
+        <v>17</v>
+      </c>
+      <c r="P196">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A197" s="1">
         <v>530330054002</v>
       </c>
@@ -9124,8 +10312,14 @@
       <c r="N197">
         <v>0.31481481481481483</v>
       </c>
-    </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O197">
+        <v>17</v>
+      </c>
+      <c r="P197">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A198" s="1">
         <v>530330054003</v>
       </c>
@@ -9168,8 +10362,14 @@
       <c r="N198">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O198">
+        <v>17</v>
+      </c>
+      <c r="P198">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A199" s="1">
         <v>530330054004</v>
       </c>
@@ -9212,8 +10412,14 @@
       <c r="N199">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O199">
+        <v>16</v>
+      </c>
+      <c r="P199">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A200" s="1">
         <v>530330056001</v>
       </c>
@@ -9256,8 +10462,14 @@
       <c r="N200">
         <v>0.32432432432432434</v>
       </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O200">
+        <v>24</v>
+      </c>
+      <c r="P200">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A201" s="1">
         <v>530330056002</v>
       </c>
@@ -9300,8 +10512,14 @@
       <c r="N201">
         <v>0.27710843373493976</v>
       </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O201">
+        <v>23</v>
+      </c>
+      <c r="P201">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A202" s="1">
         <v>530330056003</v>
       </c>
@@ -9344,8 +10562,14 @@
       <c r="N202">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O202">
+        <v>22</v>
+      </c>
+      <c r="P202">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A203" s="1">
         <v>530330056004</v>
       </c>
@@ -9388,8 +10612,14 @@
       <c r="N203">
         <v>0.3188405797101449</v>
       </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O203">
+        <v>22</v>
+      </c>
+      <c r="P203">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A204" s="1">
         <v>530330056005</v>
       </c>
@@ -9432,8 +10662,14 @@
       <c r="N204">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O204">
+        <v>20</v>
+      </c>
+      <c r="P204">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A205" s="1">
         <v>530330057001</v>
       </c>
@@ -9476,8 +10712,14 @@
       <c r="N205">
         <v>0.32500000000000001</v>
       </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O205">
+        <v>26</v>
+      </c>
+      <c r="P205">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A206" s="1">
         <v>530330057002</v>
       </c>
@@ -9520,8 +10762,14 @@
       <c r="N206">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O206">
+        <v>22</v>
+      </c>
+      <c r="P206">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A207" s="1">
         <v>530330057003</v>
       </c>
@@ -9564,8 +10812,14 @@
       <c r="N207">
         <v>0.35483870967741937</v>
       </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O207">
+        <v>22</v>
+      </c>
+      <c r="P207">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A208" s="1">
         <v>530330057004</v>
       </c>
@@ -9608,8 +10862,14 @@
       <c r="N208">
         <v>0.34848484848484851</v>
       </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O208">
+        <v>23</v>
+      </c>
+      <c r="P208">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A209" s="1">
         <v>530330057005</v>
       </c>
@@ -9652,8 +10912,14 @@
       <c r="N209">
         <v>0.359375</v>
       </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O209">
+        <v>23</v>
+      </c>
+      <c r="P209">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A210" s="1">
         <v>530330057006</v>
       </c>
@@ -9696,8 +10962,14 @@
       <c r="N210">
         <v>0.35384615384615387</v>
       </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O210">
+        <v>23</v>
+      </c>
+      <c r="P210">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A211" s="1">
         <v>530330058011</v>
       </c>
@@ -9740,8 +11012,14 @@
       <c r="N211">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O211">
+        <v>22</v>
+      </c>
+      <c r="P211">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A212" s="1">
         <v>530330058012</v>
       </c>
@@ -9784,8 +11062,14 @@
       <c r="N212">
         <v>0.36065573770491804</v>
       </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O212">
+        <v>22</v>
+      </c>
+      <c r="P212">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A213" s="1">
         <v>530330058013</v>
       </c>
@@ -9828,8 +11112,14 @@
       <c r="N213">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O213">
+        <v>22</v>
+      </c>
+      <c r="P213">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A214" s="1">
         <v>530330058014</v>
       </c>
@@ -9872,8 +11162,14 @@
       <c r="N214">
         <v>0.32786885245901637</v>
       </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O214">
+        <v>20</v>
+      </c>
+      <c r="P214">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A215" s="1">
         <v>530330058021</v>
       </c>
@@ -9916,8 +11212,14 @@
       <c r="N215">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O215">
+        <v>22</v>
+      </c>
+      <c r="P215">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A216" s="1">
         <v>530330058022</v>
       </c>
@@ -9960,8 +11262,14 @@
       <c r="N216">
         <v>0.36538461538461536</v>
       </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O216">
+        <v>19</v>
+      </c>
+      <c r="P216">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A217" s="1">
         <v>530330058023</v>
       </c>
@@ -10004,8 +11312,14 @@
       <c r="N217">
         <v>0.3392857142857143</v>
       </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O217">
+        <v>19</v>
+      </c>
+      <c r="P217">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A218" s="1">
         <v>530330059001</v>
       </c>
@@ -10048,8 +11362,14 @@
       <c r="N218">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O218">
+        <v>19</v>
+      </c>
+      <c r="P218">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A219" s="1">
         <v>530330059002</v>
       </c>
@@ -10092,8 +11412,14 @@
       <c r="N219">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O219">
+        <v>20</v>
+      </c>
+      <c r="P219">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A220" s="1">
         <v>530330059003</v>
       </c>
@@ -10136,8 +11462,14 @@
       <c r="N220">
         <v>0.31147540983606559</v>
       </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O220">
+        <v>19</v>
+      </c>
+      <c r="P220">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A221" s="1">
         <v>530330059004</v>
       </c>
@@ -10180,8 +11512,14 @@
       <c r="N221">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O221">
+        <v>19</v>
+      </c>
+      <c r="P221">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A222" s="1">
         <v>530330059005</v>
       </c>
@@ -10224,8 +11562,14 @@
       <c r="N222">
         <v>0.30508474576271188</v>
       </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O222">
+        <v>18</v>
+      </c>
+      <c r="P222">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A223" s="1">
         <v>530330060001</v>
       </c>
@@ -10268,8 +11612,14 @@
       <c r="N223">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O223">
+        <v>16</v>
+      </c>
+      <c r="P223">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A224" s="1">
         <v>530330060002</v>
       </c>
@@ -10312,8 +11662,14 @@
       <c r="N224">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O224">
+        <v>16</v>
+      </c>
+      <c r="P224">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A225" s="1">
         <v>530330060003</v>
       </c>
@@ -10356,8 +11712,14 @@
       <c r="N225">
         <v>0.29310344827586204</v>
       </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O225">
+        <v>17</v>
+      </c>
+      <c r="P225">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A226" s="1">
         <v>530330060004</v>
       </c>
@@ -10400,8 +11762,14 @@
       <c r="N226">
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O226">
+        <v>18</v>
+      </c>
+      <c r="P226">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A227" s="1">
         <v>530330061001</v>
       </c>
@@ -10444,8 +11812,14 @@
       <c r="N227">
         <v>0.27586206896551724</v>
       </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O227">
+        <v>16</v>
+      </c>
+      <c r="P227">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A228" s="1">
         <v>530330061002</v>
       </c>
@@ -10488,8 +11862,14 @@
       <c r="N228">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O228">
+        <v>16</v>
+      </c>
+      <c r="P228">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A229" s="1">
         <v>530330061003</v>
       </c>
@@ -10532,8 +11912,14 @@
       <c r="N229">
         <v>0.26315789473684209</v>
       </c>
-    </row>
-    <row r="230" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O229">
+        <v>15</v>
+      </c>
+      <c r="P229">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A230" s="1">
         <v>530330061004</v>
       </c>
@@ -10576,8 +11962,14 @@
       <c r="N230">
         <v>0.26315789473684209</v>
       </c>
-    </row>
-    <row r="231" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O230">
+        <v>15</v>
+      </c>
+      <c r="P230">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A231" s="1">
         <v>530330062001</v>
       </c>
@@ -10620,8 +12012,14 @@
       <c r="N231">
         <v>0.2982456140350877</v>
       </c>
-    </row>
-    <row r="232" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O231">
+        <v>17</v>
+      </c>
+      <c r="P231">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A232" s="1">
         <v>530330062002</v>
       </c>
@@ -10664,8 +12062,14 @@
       <c r="N232">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="233" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O232">
+        <v>17</v>
+      </c>
+      <c r="P232">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A233" s="1">
         <v>530330062003</v>
       </c>
@@ -10708,8 +12112,14 @@
       <c r="N233">
         <v>0.30909090909090908</v>
       </c>
-    </row>
-    <row r="234" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O233">
+        <v>17</v>
+      </c>
+      <c r="P233">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A234" s="1">
         <v>530330063001</v>
       </c>
@@ -10752,8 +12162,14 @@
       <c r="N234">
         <v>0.38333333333333336</v>
       </c>
-    </row>
-    <row r="235" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O234">
+        <v>23</v>
+      </c>
+      <c r="P234">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A235" s="1">
         <v>530330063002</v>
       </c>
@@ -10796,8 +12212,14 @@
       <c r="N235">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="236" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O235">
+        <v>21</v>
+      </c>
+      <c r="P235">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A236" s="1">
         <v>530330063003</v>
       </c>
@@ -10840,8 +12262,14 @@
       <c r="N236">
         <v>0.35384615384615387</v>
       </c>
-    </row>
-    <row r="237" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O236">
+        <v>23</v>
+      </c>
+      <c r="P236">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A237" s="1">
         <v>530330063004</v>
       </c>
@@ -10884,8 +12312,14 @@
       <c r="N237">
         <v>0.296875</v>
       </c>
-    </row>
-    <row r="238" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O237">
+        <v>19</v>
+      </c>
+      <c r="P237">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A238" s="1">
         <v>530330064001</v>
       </c>
@@ -10928,8 +12362,14 @@
       <c r="N238">
         <v>0.33962264150943394</v>
       </c>
-    </row>
-    <row r="239" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O238">
+        <v>18</v>
+      </c>
+      <c r="P238">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A239" s="1">
         <v>530330064002</v>
       </c>
@@ -10972,8 +12412,14 @@
       <c r="N239">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="240" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O239">
+        <v>18</v>
+      </c>
+      <c r="P239">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A240" s="1">
         <v>530330064003</v>
       </c>
@@ -11016,8 +12462,14 @@
       <c r="N240">
         <v>0.41304347826086957</v>
       </c>
-    </row>
-    <row r="241" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O240">
+        <v>19</v>
+      </c>
+      <c r="P240">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A241" s="1">
         <v>530330065001</v>
       </c>
@@ -11060,8 +12512,14 @@
       <c r="N241">
         <v>0.3392857142857143</v>
       </c>
-    </row>
-    <row r="242" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O241">
+        <v>19</v>
+      </c>
+      <c r="P241">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A242" s="1">
         <v>530330065002</v>
       </c>
@@ -11104,8 +12562,14 @@
       <c r="N242">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="243" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O242">
+        <v>17</v>
+      </c>
+      <c r="P242">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A243" s="1">
         <v>530330065003</v>
       </c>
@@ -11148,8 +12612,14 @@
       <c r="N243">
         <v>0.32692307692307693</v>
       </c>
-    </row>
-    <row r="244" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O243">
+        <v>17</v>
+      </c>
+      <c r="P243">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A244" s="1">
         <v>530330066001</v>
       </c>
@@ -11192,8 +12662,14 @@
       <c r="N244">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="245" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O244">
+        <v>16</v>
+      </c>
+      <c r="P244">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A245" s="1">
         <v>530330066002</v>
       </c>
@@ -11236,8 +12712,14 @@
       <c r="N245">
         <v>0.24561403508771928</v>
       </c>
-    </row>
-    <row r="246" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O245">
+        <v>14</v>
+      </c>
+      <c r="P245">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A246" s="1">
         <v>530330067001</v>
       </c>
@@ -11280,8 +12762,14 @@
       <c r="N246">
         <v>0.34042553191489361</v>
       </c>
-    </row>
-    <row r="247" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O246">
+        <v>16</v>
+      </c>
+      <c r="P246">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A247" s="1">
         <v>530330067002</v>
       </c>
@@ -11324,8 +12812,14 @@
       <c r="N247">
         <v>0.30612244897959184</v>
       </c>
-    </row>
-    <row r="248" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O247">
+        <v>15</v>
+      </c>
+      <c r="P247">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A248" s="1">
         <v>530330067003</v>
       </c>
@@ -11368,8 +12862,14 @@
       <c r="N248">
         <v>0.34693877551020408</v>
       </c>
-    </row>
-    <row r="249" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O248">
+        <v>17</v>
+      </c>
+      <c r="P248">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A249" s="1">
         <v>530330067004</v>
       </c>
@@ -11412,8 +12912,14 @@
       <c r="N249">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="250" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O249">
+        <v>16</v>
+      </c>
+      <c r="P249">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A250" s="1">
         <v>530330068001</v>
       </c>
@@ -11456,8 +12962,14 @@
       <c r="N250">
         <v>0.30357142857142855</v>
       </c>
-    </row>
-    <row r="251" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O250">
+        <v>17</v>
+      </c>
+      <c r="P250">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A251" s="1">
         <v>530330068002</v>
       </c>
@@ -11500,8 +13012,14 @@
       <c r="N251">
         <v>0.31034482758620691</v>
       </c>
-    </row>
-    <row r="252" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O251">
+        <v>18</v>
+      </c>
+      <c r="P251">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A252" s="1">
         <v>530330069001</v>
       </c>
@@ -11544,8 +13062,14 @@
       <c r="N252">
         <v>0.3392857142857143</v>
       </c>
-    </row>
-    <row r="253" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O252">
+        <v>19</v>
+      </c>
+      <c r="P252">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A253" s="1">
         <v>530330069002</v>
       </c>
@@ -11588,8 +13112,14 @@
       <c r="N253">
         <v>0.33898305084745761</v>
       </c>
-    </row>
-    <row r="254" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O253">
+        <v>20</v>
+      </c>
+      <c r="P253">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A254" s="1">
         <v>530330069003</v>
       </c>
@@ -11632,8 +13162,14 @@
       <c r="N254">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="255" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O254">
+        <v>19</v>
+      </c>
+      <c r="P254">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A255" s="1">
         <v>530330069004</v>
       </c>
@@ -11676,8 +13212,14 @@
       <c r="N255">
         <v>0.34545454545454546</v>
       </c>
-    </row>
-    <row r="256" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O255">
+        <v>19</v>
+      </c>
+      <c r="P255">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A256" s="1">
         <v>530330070001</v>
       </c>
@@ -11720,8 +13262,14 @@
       <c r="N256">
         <v>0.34693877551020408</v>
       </c>
-    </row>
-    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O256">
+        <v>17</v>
+      </c>
+      <c r="P256">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A257" s="1">
         <v>530330070002</v>
       </c>
@@ -11764,8 +13312,14 @@
       <c r="N257">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O257">
+        <v>17</v>
+      </c>
+      <c r="P257">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A258" s="1">
         <v>530330070003</v>
       </c>
@@ -11808,8 +13362,14 @@
       <c r="N258">
         <v>0.34693877551020408</v>
       </c>
-    </row>
-    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O258">
+        <v>17</v>
+      </c>
+      <c r="P258">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A259" s="1">
         <v>530330070004</v>
       </c>
@@ -11852,8 +13412,14 @@
       <c r="N259">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O259">
+        <v>18</v>
+      </c>
+      <c r="P259">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A260" s="1">
         <v>530330070005</v>
       </c>
@@ -11896,8 +13462,14 @@
       <c r="N260">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O260">
+        <v>17</v>
+      </c>
+      <c r="P260">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A261" s="1">
         <v>530330070006</v>
       </c>
@@ -11940,8 +13512,14 @@
       <c r="N261">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O261">
+        <v>18</v>
+      </c>
+      <c r="P261">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A262" s="1">
         <v>530330071001</v>
       </c>
@@ -11984,8 +13562,14 @@
       <c r="N262">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O262">
+        <v>17</v>
+      </c>
+      <c r="P262">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A263" s="1">
         <v>530330071002</v>
       </c>
@@ -12028,8 +13612,14 @@
       <c r="N263">
         <v>0.34693877551020408</v>
       </c>
-    </row>
-    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O263">
+        <v>17</v>
+      </c>
+      <c r="P263">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A264" s="1">
         <v>530330072001</v>
       </c>
@@ -12072,8 +13662,14 @@
       <c r="N264">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O264">
+        <v>15</v>
+      </c>
+      <c r="P264">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A265" s="1">
         <v>530330072002</v>
       </c>
@@ -12116,8 +13712,14 @@
       <c r="N265">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O265">
+        <v>15</v>
+      </c>
+      <c r="P265">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A266" s="1">
         <v>530330072003</v>
       </c>
@@ -12160,8 +13762,14 @@
       <c r="N266">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O266">
+        <v>16</v>
+      </c>
+      <c r="P266">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A267" s="1">
         <v>530330073001</v>
       </c>
@@ -12204,8 +13812,14 @@
       <c r="N267">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O267">
+        <v>15</v>
+      </c>
+      <c r="P267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A268" s="1">
         <v>530330073002</v>
       </c>
@@ -12248,8 +13862,14 @@
       <c r="N268">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O268">
+        <v>14</v>
+      </c>
+      <c r="P268">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A269" s="1">
         <v>530330073003</v>
       </c>
@@ -12292,8 +13912,14 @@
       <c r="N269">
         <v>0.34042553191489361</v>
       </c>
-    </row>
-    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O269">
+        <v>16</v>
+      </c>
+      <c r="P269">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A270" s="1">
         <v>530330074011</v>
       </c>
@@ -12336,8 +13962,14 @@
       <c r="N270">
         <v>0.31372549019607843</v>
       </c>
-    </row>
-    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O270">
+        <v>16</v>
+      </c>
+      <c r="P270">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A271" s="1">
         <v>530330074012</v>
       </c>
@@ -12380,8 +14012,14 @@
       <c r="N271">
         <v>0.34782608695652173</v>
       </c>
-    </row>
-    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O271">
+        <v>16</v>
+      </c>
+      <c r="P271">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A272" s="1">
         <v>530330074013</v>
       </c>
@@ -12424,8 +14062,14 @@
       <c r="N272">
         <v>0.29411764705882354</v>
       </c>
-    </row>
-    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O272">
+        <v>15</v>
+      </c>
+      <c r="P272">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A273" s="1">
         <v>530330074014</v>
       </c>
@@ -12468,8 +14112,14 @@
       <c r="N273">
         <v>0.31914893617021278</v>
       </c>
-    </row>
-    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O273">
+        <v>15</v>
+      </c>
+      <c r="P273">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A274" s="1">
         <v>530330074021</v>
       </c>
@@ -12512,8 +14162,14 @@
       <c r="N274">
         <v>0.34883720930232559</v>
       </c>
-    </row>
-    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O274">
+        <v>15</v>
+      </c>
+      <c r="P274">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A275" s="1">
         <v>530330074022</v>
       </c>
@@ -12556,8 +14212,14 @@
       <c r="N275">
         <v>0.34090909090909088</v>
       </c>
-    </row>
-    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O275">
+        <v>15</v>
+      </c>
+      <c r="P275">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A276" s="1">
         <v>530330074023</v>
       </c>
@@ -12600,8 +14262,14 @@
       <c r="N276">
         <v>0.31818181818181818</v>
       </c>
-    </row>
-    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O276">
+        <v>14</v>
+      </c>
+      <c r="P276">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A277" s="1">
         <v>530330075001</v>
       </c>
@@ -12644,8 +14312,14 @@
       <c r="N277">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O277">
+        <v>17</v>
+      </c>
+      <c r="P277">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A278" s="1">
         <v>530330075002</v>
       </c>
@@ -12688,8 +14362,14 @@
       <c r="N278">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O278">
+        <v>17</v>
+      </c>
+      <c r="P278">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A279" s="1">
         <v>530330075003</v>
       </c>
@@ -12732,8 +14412,14 @@
       <c r="N279">
         <v>0.37777777777777777</v>
       </c>
-    </row>
-    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O279">
+        <v>17</v>
+      </c>
+      <c r="P279">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A280" s="1">
         <v>530330075004</v>
       </c>
@@ -12776,8 +14462,14 @@
       <c r="N280">
         <v>0.36170212765957449</v>
       </c>
-    </row>
-    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O280">
+        <v>17</v>
+      </c>
+      <c r="P280">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A281" s="1">
         <v>530330075005</v>
       </c>
@@ -12820,8 +14512,14 @@
       <c r="N281">
         <v>0.38095238095238093</v>
       </c>
-    </row>
-    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O281">
+        <v>16</v>
+      </c>
+      <c r="P281">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A282" s="1">
         <v>530330076001</v>
       </c>
@@ -12864,8 +14562,14 @@
       <c r="N282">
         <v>0.36734693877551022</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O282">
+        <v>18</v>
+      </c>
+      <c r="P282">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A283" s="1">
         <v>530330076002</v>
       </c>
@@ -12908,8 +14612,14 @@
       <c r="N283">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O283">
+        <v>18</v>
+      </c>
+      <c r="P283">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A284" s="1">
         <v>530330076003</v>
       </c>
@@ -12952,8 +14662,14 @@
       <c r="N284">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O284">
+        <v>18</v>
+      </c>
+      <c r="P284">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A285" s="1">
         <v>530330077001</v>
       </c>
@@ -12996,8 +14712,14 @@
       <c r="N285">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O285">
+        <v>20</v>
+      </c>
+      <c r="P285">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A286" s="1">
         <v>530330077002</v>
       </c>
@@ -13040,8 +14762,14 @@
       <c r="N286">
         <v>0.34545454545454546</v>
       </c>
-    </row>
-    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O286">
+        <v>19</v>
+      </c>
+      <c r="P286">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A287" s="1">
         <v>530330077003</v>
       </c>
@@ -13084,8 +14812,14 @@
       <c r="N287">
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O287">
+        <v>19</v>
+      </c>
+      <c r="P287">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A288" s="1">
         <v>530330077004</v>
       </c>
@@ -13128,8 +14862,14 @@
       <c r="N288">
         <v>0.35849056603773582</v>
       </c>
-    </row>
-    <row r="289" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O288">
+        <v>19</v>
+      </c>
+      <c r="P288">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A289" s="1">
         <v>530330078001</v>
       </c>
@@ -13172,8 +14912,14 @@
       <c r="N289">
         <v>0.34426229508196721</v>
       </c>
-    </row>
-    <row r="290" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O289">
+        <v>21</v>
+      </c>
+      <c r="P289">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A290" s="1">
         <v>530330078002</v>
       </c>
@@ -13216,8 +14962,14 @@
       <c r="N290">
         <v>0.32786885245901637</v>
       </c>
-    </row>
-    <row r="291" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O290">
+        <v>20</v>
+      </c>
+      <c r="P290">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A291" s="1">
         <v>530330078003</v>
       </c>
@@ -13260,8 +15012,14 @@
       <c r="N291">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="292" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O291">
+        <v>20</v>
+      </c>
+      <c r="P291">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A292" s="1">
         <v>530330078004</v>
       </c>
@@ -13304,8 +15062,14 @@
       <c r="N292">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="293" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O292">
+        <v>21</v>
+      </c>
+      <c r="P292">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A293" s="1">
         <v>530330079001</v>
       </c>
@@ -13348,8 +15112,14 @@
       <c r="N293">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="294" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O293">
+        <v>19</v>
+      </c>
+      <c r="P293">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A294" s="1">
         <v>530330079002</v>
       </c>
@@ -13392,8 +15162,14 @@
       <c r="N294">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="295" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O294">
+        <v>18</v>
+      </c>
+      <c r="P294">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A295" s="1">
         <v>530330079003</v>
       </c>
@@ -13436,8 +15212,14 @@
       <c r="N295">
         <v>0.34615384615384615</v>
       </c>
-    </row>
-    <row r="296" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O295">
+        <v>18</v>
+      </c>
+      <c r="P295">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A296" s="1">
         <v>530330079004</v>
       </c>
@@ -13480,8 +15262,14 @@
       <c r="N296">
         <v>0.36170212765957449</v>
       </c>
-    </row>
-    <row r="297" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O296">
+        <v>17</v>
+      </c>
+      <c r="P296">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A297" s="1">
         <v>530330079005</v>
       </c>
@@ -13524,8 +15312,14 @@
       <c r="N297">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="298" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O297">
+        <v>18</v>
+      </c>
+      <c r="P297">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A298" s="1">
         <v>530330080011</v>
       </c>
@@ -13568,8 +15362,14 @@
       <c r="N298">
         <v>0.38095238095238093</v>
       </c>
-    </row>
-    <row r="299" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O298">
+        <v>16</v>
+      </c>
+      <c r="P298">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A299" s="1">
         <v>530330080012</v>
       </c>
@@ -13612,8 +15412,14 @@
       <c r="N299">
         <v>0.41463414634146339</v>
       </c>
-    </row>
-    <row r="300" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O299">
+        <v>17</v>
+      </c>
+      <c r="P299">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A300" s="1">
         <v>530330080013</v>
       </c>
@@ -13656,8 +15462,14 @@
       <c r="N300">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="301" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O300">
+        <v>16</v>
+      </c>
+      <c r="P300">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A301" s="1">
         <v>530330080014</v>
       </c>
@@ -13700,8 +15512,14 @@
       <c r="N301">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="302" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O301">
+        <v>16</v>
+      </c>
+      <c r="P301">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A302" s="1">
         <v>530330080015</v>
       </c>
@@ -13744,8 +15562,14 @@
       <c r="N302">
         <v>0.34042553191489361</v>
       </c>
-    </row>
-    <row r="303" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O302">
+        <v>16</v>
+      </c>
+      <c r="P302">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A303" s="1">
         <v>530330080021</v>
       </c>
@@ -13788,8 +15612,14 @@
       <c r="N303">
         <v>0.41025641025641024</v>
       </c>
-    </row>
-    <row r="304" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O303">
+        <v>16</v>
+      </c>
+      <c r="P303">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A304" s="1">
         <v>530330080022</v>
       </c>
@@ -13832,8 +15662,14 @@
       <c r="N304">
         <v>0.39534883720930231</v>
       </c>
-    </row>
-    <row r="305" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O304">
+        <v>17</v>
+      </c>
+      <c r="P304">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A305" s="1">
         <v>530330081001</v>
       </c>
@@ -13876,8 +15712,14 @@
       <c r="N305">
         <v>0.38461538461538464</v>
       </c>
-    </row>
-    <row r="306" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O305">
+        <v>15</v>
+      </c>
+      <c r="P305">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A306" s="1">
         <v>530330081002</v>
       </c>
@@ -13920,8 +15762,14 @@
       <c r="N306">
         <v>0.41176470588235292</v>
       </c>
-    </row>
-    <row r="307" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O306">
+        <v>14</v>
+      </c>
+      <c r="P306">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A307" s="1">
         <v>530330081003</v>
       </c>
@@ -13964,8 +15812,14 @@
       <c r="N307">
         <v>0.47368421052631576</v>
       </c>
-    </row>
-    <row r="308" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O307">
+        <v>18</v>
+      </c>
+      <c r="P307">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A308" s="1">
         <v>530330082001</v>
       </c>
@@ -14008,8 +15862,14 @@
       <c r="N308">
         <v>0.40540540540540543</v>
       </c>
-    </row>
-    <row r="309" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O308">
+        <v>15</v>
+      </c>
+      <c r="P308">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A309" s="1">
         <v>530330082002</v>
       </c>
@@ -14052,8 +15912,14 @@
       <c r="N309">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="310" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O309">
+        <v>14</v>
+      </c>
+      <c r="P309">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A310" s="1">
         <v>530330082003</v>
       </c>
@@ -14096,8 +15962,14 @@
       <c r="N310">
         <v>0.32558139534883723</v>
       </c>
-    </row>
-    <row r="311" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O310">
+        <v>14</v>
+      </c>
+      <c r="P310">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A311" s="1">
         <v>530330083001</v>
       </c>
@@ -14140,8 +16012,14 @@
       <c r="N311">
         <v>0.34883720930232559</v>
       </c>
-    </row>
-    <row r="312" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O311">
+        <v>15</v>
+      </c>
+      <c r="P311">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A312" s="1">
         <v>530330083002</v>
       </c>
@@ -14184,8 +16062,14 @@
       <c r="N312">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="313" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O312">
+        <v>15</v>
+      </c>
+      <c r="P312">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A313" s="1">
         <v>530330084001</v>
       </c>
@@ -14228,8 +16112,14 @@
       <c r="N313">
         <v>0.32608695652173914</v>
       </c>
-    </row>
-    <row r="314" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O313">
+        <v>15</v>
+      </c>
+      <c r="P313">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A314" s="1">
         <v>530330084002</v>
       </c>
@@ -14272,8 +16162,14 @@
       <c r="N314">
         <v>0.32608695652173914</v>
       </c>
-    </row>
-    <row r="315" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O314">
+        <v>15</v>
+      </c>
+      <c r="P314">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A315" s="1">
         <v>530330084003</v>
       </c>
@@ -14316,8 +16212,14 @@
       <c r="N315">
         <v>0.34090909090909088</v>
       </c>
-    </row>
-    <row r="316" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O315">
+        <v>15</v>
+      </c>
+      <c r="P315">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A316" s="1">
         <v>530330085001</v>
       </c>
@@ -14360,8 +16262,14 @@
       <c r="N316">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="317" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O316">
+        <v>14</v>
+      </c>
+      <c r="P316">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A317" s="1">
         <v>530330085002</v>
       </c>
@@ -14404,8 +16312,14 @@
       <c r="N317">
         <v>0.31914893617021278</v>
       </c>
-    </row>
-    <row r="318" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O317">
+        <v>15</v>
+      </c>
+      <c r="P317">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A318" s="1">
         <v>530330085003</v>
       </c>
@@ -14448,8 +16362,14 @@
       <c r="N318">
         <v>0.28888888888888886</v>
       </c>
-    </row>
-    <row r="319" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O318">
+        <v>13</v>
+      </c>
+      <c r="P318">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A319" s="1">
         <v>530330086001</v>
       </c>
@@ -14492,8 +16412,14 @@
       <c r="N319">
         <v>0.32075471698113206</v>
       </c>
-    </row>
-    <row r="320" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O319">
+        <v>17</v>
+      </c>
+      <c r="P319">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A320" s="1">
         <v>530330086002</v>
       </c>
@@ -14536,8 +16462,14 @@
       <c r="N320">
         <v>0.31372549019607843</v>
       </c>
-    </row>
-    <row r="321" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O320">
+        <v>16</v>
+      </c>
+      <c r="P320">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A321" s="1">
         <v>530330086003</v>
       </c>
@@ -14580,8 +16512,14 @@
       <c r="N321">
         <v>0.35416666666666669</v>
       </c>
-    </row>
-    <row r="322" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O321">
+        <v>17</v>
+      </c>
+      <c r="P321">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A322" s="1">
         <v>530330087001</v>
       </c>
@@ -14624,8 +16562,14 @@
       <c r="N322">
         <v>0.33962264150943394</v>
       </c>
-    </row>
-    <row r="323" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O322">
+        <v>18</v>
+      </c>
+      <c r="P322">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A323" s="1">
         <v>530330087002</v>
       </c>
@@ -14668,8 +16612,14 @@
       <c r="N323">
         <v>0.36538461538461536</v>
       </c>
-    </row>
-    <row r="324" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O323">
+        <v>19</v>
+      </c>
+      <c r="P323">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A324" s="1">
         <v>530330087003</v>
       </c>
@@ -14712,8 +16662,14 @@
       <c r="N324">
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="325" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O324">
+        <v>19</v>
+      </c>
+      <c r="P324">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A325" s="1">
         <v>530330088001</v>
       </c>
@@ -14756,8 +16712,14 @@
       <c r="N325">
         <v>0.35185185185185186</v>
       </c>
-    </row>
-    <row r="326" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O325">
+        <v>19</v>
+      </c>
+      <c r="P325">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A326" s="1">
         <v>530330088002</v>
       </c>
@@ -14800,8 +16762,14 @@
       <c r="N326">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="327" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O326">
+        <v>20</v>
+      </c>
+      <c r="P326">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A327" s="1">
         <v>530330088003</v>
       </c>
@@ -14844,8 +16812,14 @@
       <c r="N327">
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="328" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O327">
+        <v>19</v>
+      </c>
+      <c r="P327">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A328" s="1">
         <v>530330089001</v>
       </c>
@@ -14888,8 +16862,14 @@
       <c r="N328">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="329" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O328">
+        <v>21</v>
+      </c>
+      <c r="P328">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A329" s="1">
         <v>530330089002</v>
       </c>
@@ -14932,8 +16912,14 @@
       <c r="N329">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="330" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O329">
+        <v>20</v>
+      </c>
+      <c r="P329">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A330" s="1">
         <v>530330089003</v>
       </c>
@@ -14976,8 +16962,14 @@
       <c r="N330">
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="331" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O330">
+        <v>19</v>
+      </c>
+      <c r="P330">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A331" s="1">
         <v>530330089004</v>
       </c>
@@ -15020,8 +17012,14 @@
       <c r="N331">
         <v>0.34545454545454546</v>
       </c>
-    </row>
-    <row r="332" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O331">
+        <v>19</v>
+      </c>
+      <c r="P331">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A332" s="1">
         <v>530330090001</v>
       </c>
@@ -15064,8 +17062,14 @@
       <c r="N332">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="333" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O332">
+        <v>20</v>
+      </c>
+      <c r="P332">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A333" s="1">
         <v>530330090002</v>
       </c>
@@ -15108,8 +17112,14 @@
       <c r="N333">
         <v>0.39130434782608697</v>
       </c>
-    </row>
-    <row r="334" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O333">
+        <v>18</v>
+      </c>
+      <c r="P333">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A334" s="1">
         <v>530330091001</v>
       </c>
@@ -15152,8 +17162,14 @@
       <c r="N334">
         <v>0.30952380952380953</v>
       </c>
-    </row>
-    <row r="335" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O334">
+        <v>13</v>
+      </c>
+      <c r="P334">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A335" s="1">
         <v>530330091002</v>
       </c>
@@ -15196,8 +17212,14 @@
       <c r="N335">
         <v>0.4358974358974359</v>
       </c>
-    </row>
-    <row r="336" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O335">
+        <v>17</v>
+      </c>
+      <c r="P335">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A336" s="1">
         <v>530330092001</v>
       </c>
@@ -15240,8 +17262,14 @@
       <c r="N336">
         <v>0.42105263157894735</v>
       </c>
-    </row>
-    <row r="337" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O336">
+        <v>16</v>
+      </c>
+      <c r="P336">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A337" s="1">
         <v>530330092002</v>
       </c>
@@ -15284,8 +17312,14 @@
       <c r="N337">
         <v>0.41025641025641024</v>
       </c>
-    </row>
-    <row r="338" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O337">
+        <v>16</v>
+      </c>
+      <c r="P337">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A338" s="1">
         <v>530330093001</v>
       </c>
@@ -15328,8 +17362,14 @@
       <c r="N338">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="339" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O338">
+        <v>15</v>
+      </c>
+      <c r="P338">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A339" s="1">
         <v>530330093002</v>
       </c>
@@ -15372,8 +17412,14 @@
       <c r="N339">
         <v>0.34782608695652173</v>
       </c>
-    </row>
-    <row r="340" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O339">
+        <v>16</v>
+      </c>
+      <c r="P339">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A340" s="1">
         <v>530330093003</v>
       </c>
@@ -15416,8 +17462,14 @@
       <c r="N340">
         <v>0.34883720930232559</v>
       </c>
-    </row>
-    <row r="341" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O340">
+        <v>15</v>
+      </c>
+      <c r="P340">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A341" s="1">
         <v>530330094001</v>
       </c>
@@ -15460,8 +17512,14 @@
       <c r="N341">
         <v>0.36734693877551022</v>
       </c>
-    </row>
-    <row r="342" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O341">
+        <v>18</v>
+      </c>
+      <c r="P341">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A342" s="1">
         <v>530330094002</v>
       </c>
@@ -15504,8 +17562,14 @@
       <c r="N342">
         <v>0.37777777777777777</v>
       </c>
-    </row>
-    <row r="343" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O342">
+        <v>17</v>
+      </c>
+      <c r="P342">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A343" s="1">
         <v>530330094003</v>
       </c>
@@ -15548,8 +17612,14 @@
       <c r="N343">
         <v>0.36734693877551022</v>
       </c>
-    </row>
-    <row r="344" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O343">
+        <v>18</v>
+      </c>
+      <c r="P343">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A344" s="1">
         <v>530330094004</v>
       </c>
@@ -15592,8 +17662,14 @@
       <c r="N344">
         <v>0.36956521739130432</v>
       </c>
-    </row>
-    <row r="345" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O344">
+        <v>17</v>
+      </c>
+      <c r="P344">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A345" s="1">
         <v>530330094005</v>
       </c>
@@ -15636,8 +17712,14 @@
       <c r="N345">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="346" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O345">
+        <v>19</v>
+      </c>
+      <c r="P345">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A346" s="1">
         <v>530330095001</v>
       </c>
@@ -15680,8 +17762,14 @@
       <c r="N346">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="347" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O346">
+        <v>21</v>
+      </c>
+      <c r="P346">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A347" s="1">
         <v>530330095002</v>
       </c>
@@ -15724,8 +17812,14 @@
       <c r="N347">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="348" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O347">
+        <v>18</v>
+      </c>
+      <c r="P347">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A348" s="1">
         <v>530330095003</v>
       </c>
@@ -15768,8 +17862,14 @@
       <c r="N348">
         <v>0.37735849056603776</v>
       </c>
-    </row>
-    <row r="349" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O348">
+        <v>20</v>
+      </c>
+      <c r="P348">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A349" s="1">
         <v>530330095004</v>
       </c>
@@ -15812,8 +17912,14 @@
       <c r="N349">
         <v>0.40425531914893614</v>
       </c>
-    </row>
-    <row r="350" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O349">
+        <v>19</v>
+      </c>
+      <c r="P349">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A350" s="1">
         <v>530330096001</v>
       </c>
@@ -15856,8 +17962,14 @@
       <c r="N350">
         <v>0.27397260273972601</v>
       </c>
-    </row>
-    <row r="351" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O350">
+        <v>20</v>
+      </c>
+      <c r="P350">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A351" s="1">
         <v>530330096002</v>
       </c>
@@ -15900,8 +18012,14 @@
       <c r="N351">
         <v>0.30158730158730157</v>
       </c>
-    </row>
-    <row r="352" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O351">
+        <v>19</v>
+      </c>
+      <c r="P351">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A352" s="1">
         <v>530330096003</v>
       </c>
@@ -15944,8 +18062,14 @@
       <c r="N352">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="353" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O352">
+        <v>21</v>
+      </c>
+      <c r="P352">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A353" s="1">
         <v>530330096004</v>
       </c>
@@ -15988,8 +18112,14 @@
       <c r="N353">
         <v>0.31343283582089554</v>
       </c>
-    </row>
-    <row r="354" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O353">
+        <v>21</v>
+      </c>
+      <c r="P353">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A354" s="1">
         <v>530330096005</v>
       </c>
@@ -16032,8 +18162,14 @@
       <c r="N354">
         <v>0.30882352941176472</v>
       </c>
-    </row>
-    <row r="355" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O354">
+        <v>21</v>
+      </c>
+      <c r="P354">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A355" s="1">
         <v>530330097011</v>
       </c>
@@ -16076,8 +18212,14 @@
       <c r="N355">
         <v>0.29166666666666669</v>
       </c>
-    </row>
-    <row r="356" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O355">
+        <v>21</v>
+      </c>
+      <c r="P355">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A356" s="1">
         <v>530330097012</v>
       </c>
@@ -16120,8 +18262,14 @@
       <c r="N356">
         <v>0.30555555555555558</v>
       </c>
-    </row>
-    <row r="357" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O356">
+        <v>22</v>
+      </c>
+      <c r="P356">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A357" s="1">
         <v>530330097013</v>
       </c>
@@ -16164,8 +18312,14 @@
       <c r="N357">
         <v>0.30666666666666664</v>
       </c>
-    </row>
-    <row r="358" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O357">
+        <v>23</v>
+      </c>
+      <c r="P357">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A358" s="1">
         <v>530330097014</v>
       </c>
@@ -16208,8 +18362,14 @@
       <c r="N358">
         <v>0.3188405797101449</v>
       </c>
-    </row>
-    <row r="359" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O358">
+        <v>22</v>
+      </c>
+      <c r="P358">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A359" s="1">
         <v>530330097021</v>
       </c>
@@ -16252,8 +18412,14 @@
       <c r="N359">
         <v>0.31818181818181818</v>
       </c>
-    </row>
-    <row r="360" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O359">
+        <v>21</v>
+      </c>
+      <c r="P359">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A360" s="1">
         <v>530330097022</v>
       </c>
@@ -16296,8 +18462,14 @@
       <c r="N360">
         <v>0.31746031746031744</v>
       </c>
-    </row>
-    <row r="361" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O360">
+        <v>20</v>
+      </c>
+      <c r="P360">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A361" s="1">
         <v>530330097023</v>
       </c>
@@ -16340,8 +18512,14 @@
       <c r="N361">
         <v>0.32786885245901637</v>
       </c>
-    </row>
-    <row r="362" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O361">
+        <v>20</v>
+      </c>
+      <c r="P361">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A362" s="1">
         <v>530330097024</v>
       </c>
@@ -16384,8 +18562,14 @@
       <c r="N362">
         <v>0.30882352941176472</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O362">
+        <v>21</v>
+      </c>
+      <c r="P362">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A363" s="1">
         <v>530330097025</v>
       </c>
@@ -16428,8 +18612,14 @@
       <c r="N363">
         <v>0.28378378378378377</v>
       </c>
-    </row>
-    <row r="364" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O363">
+        <v>21</v>
+      </c>
+      <c r="P363">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A364" s="1">
         <v>530330098001</v>
       </c>
@@ -16472,8 +18662,14 @@
       <c r="N364">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="365" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O364">
+        <v>18</v>
+      </c>
+      <c r="P364">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A365" s="1">
         <v>530330098002</v>
       </c>
@@ -16516,8 +18712,14 @@
       <c r="N365">
         <v>0.31147540983606559</v>
       </c>
-    </row>
-    <row r="366" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O365">
+        <v>19</v>
+      </c>
+      <c r="P365">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A366" s="1">
         <v>530330098003</v>
       </c>
@@ -16560,8 +18762,14 @@
       <c r="N366">
         <v>0.32142857142857145</v>
       </c>
-    </row>
-    <row r="367" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O366">
+        <v>18</v>
+      </c>
+      <c r="P366">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A367" s="1">
         <v>530330098004</v>
       </c>
@@ -16604,8 +18812,14 @@
       <c r="N367">
         <v>0.32142857142857145</v>
       </c>
-    </row>
-    <row r="368" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O367">
+        <v>18</v>
+      </c>
+      <c r="P367">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A368" s="1">
         <v>530330098005</v>
       </c>
@@ -16648,8 +18862,14 @@
       <c r="N368">
         <v>0.32758620689655171</v>
       </c>
-    </row>
-    <row r="369" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O368">
+        <v>19</v>
+      </c>
+      <c r="P368">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A369" s="1">
         <v>530330099001</v>
       </c>
@@ -16692,8 +18912,14 @@
       <c r="N369">
         <v>0.30357142857142855</v>
       </c>
-    </row>
-    <row r="370" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O369">
+        <v>17</v>
+      </c>
+      <c r="P369">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A370" s="1">
         <v>530330099002</v>
       </c>
@@ -16736,8 +18962,14 @@
       <c r="N370">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="371" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O370">
+        <v>17</v>
+      </c>
+      <c r="P370">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A371" s="1">
         <v>530330099003</v>
       </c>
@@ -16780,8 +19012,14 @@
       <c r="N371">
         <v>0.2982456140350877</v>
       </c>
-    </row>
-    <row r="372" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O371">
+        <v>17</v>
+      </c>
+      <c r="P371">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A372" s="1">
         <v>530330099004</v>
       </c>
@@ -16824,8 +19062,14 @@
       <c r="N372">
         <v>0.24637681159420291</v>
       </c>
-    </row>
-    <row r="373" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O372">
+        <v>17</v>
+      </c>
+      <c r="P372">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A373" s="1">
         <v>530330100011</v>
       </c>
@@ -16868,8 +19112,14 @@
       <c r="N373">
         <v>0.26666666666666666</v>
       </c>
-    </row>
-    <row r="374" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O373">
+        <v>16</v>
+      </c>
+      <c r="P373">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A374" s="1">
         <v>530330100012</v>
       </c>
@@ -16912,8 +19162,14 @@
       <c r="N374">
         <v>0.29411764705882354</v>
       </c>
-    </row>
-    <row r="375" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O374">
+        <v>15</v>
+      </c>
+      <c r="P374">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A375" s="1">
         <v>530330100013</v>
       </c>
@@ -16956,8 +19212,14 @@
       <c r="N375">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="376" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O375">
+        <v>18</v>
+      </c>
+      <c r="P375">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A376" s="1">
         <v>530330100021</v>
       </c>
@@ -17000,8 +19262,14 @@
       <c r="N376">
         <v>0.32608695652173914</v>
       </c>
-    </row>
-    <row r="377" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O376">
+        <v>15</v>
+      </c>
+      <c r="P376">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A377" s="1">
         <v>530330100022</v>
       </c>
@@ -17044,8 +19312,14 @@
       <c r="N377">
         <v>0.37209302325581395</v>
       </c>
-    </row>
-    <row r="378" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O377">
+        <v>16</v>
+      </c>
+      <c r="P377">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A378" s="1">
         <v>530330100023</v>
       </c>
@@ -17088,8 +19362,14 @@
       <c r="N378">
         <v>0.36170212765957449</v>
       </c>
-    </row>
-    <row r="379" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O378">
+        <v>17</v>
+      </c>
+      <c r="P378">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A379" s="1">
         <v>530330100024</v>
       </c>
@@ -17132,8 +19412,14 @@
       <c r="N379">
         <v>0.32653061224489793</v>
       </c>
-    </row>
-    <row r="380" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O379">
+        <v>16</v>
+      </c>
+      <c r="P379">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A380" s="1">
         <v>530330101001</v>
       </c>
@@ -17176,8 +19462,14 @@
       <c r="N380">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="381" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O380">
+        <v>21</v>
+      </c>
+      <c r="P380">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A381" s="1">
         <v>530330101002</v>
       </c>
@@ -17220,8 +19512,14 @@
       <c r="N381">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="382" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O381">
+        <v>21</v>
+      </c>
+      <c r="P381">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A382" s="1">
         <v>530330101003</v>
       </c>
@@ -17264,8 +19562,14 @@
       <c r="N382">
         <v>0.37254901960784315</v>
       </c>
-    </row>
-    <row r="383" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O382">
+        <v>19</v>
+      </c>
+      <c r="P382">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A383" s="1">
         <v>530330101004</v>
       </c>
@@ -17308,8 +19612,14 @@
       <c r="N383">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="384" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O383">
+        <v>20</v>
+      </c>
+      <c r="P383">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A384" s="1">
         <v>530330101005</v>
       </c>
@@ -17352,8 +19662,14 @@
       <c r="N384">
         <v>0.36363636363636365</v>
       </c>
-    </row>
-    <row r="385" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O384">
+        <v>20</v>
+      </c>
+      <c r="P384">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A385" s="1">
         <v>530330102001</v>
       </c>
@@ -17396,8 +19712,14 @@
       <c r="N385">
         <v>0.39344262295081966</v>
       </c>
-    </row>
-    <row r="386" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O385">
+        <v>24</v>
+      </c>
+      <c r="P385">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A386" s="1">
         <v>530330102002</v>
       </c>
@@ -17440,8 +19762,14 @@
       <c r="N386">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="387" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O386">
+        <v>24</v>
+      </c>
+      <c r="P386">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A387" s="1">
         <v>530330102003</v>
       </c>
@@ -17484,8 +19812,14 @@
       <c r="N387">
         <v>0.33870967741935482</v>
       </c>
-    </row>
-    <row r="388" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O387">
+        <v>21</v>
+      </c>
+      <c r="P387">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A388" s="1">
         <v>530330102004</v>
       </c>
@@ -17528,8 +19862,14 @@
       <c r="N388">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="389" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O388">
+        <v>22</v>
+      </c>
+      <c r="P388">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A389" s="1">
         <v>530330103001</v>
       </c>
@@ -17572,8 +19912,14 @@
       <c r="N389">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="390" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O389">
+        <v>21</v>
+      </c>
+      <c r="P389">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A390" s="1">
         <v>530330103002</v>
       </c>
@@ -17616,8 +19962,14 @@
       <c r="N390">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="391" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O390">
+        <v>21</v>
+      </c>
+      <c r="P390">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A391" s="1">
         <v>530330103003</v>
       </c>
@@ -17660,8 +20012,14 @@
       <c r="N391">
         <v>0.35087719298245612</v>
       </c>
-    </row>
-    <row r="392" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O391">
+        <v>20</v>
+      </c>
+      <c r="P391">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A392" s="1">
         <v>530330103004</v>
       </c>
@@ -17704,8 +20062,14 @@
       <c r="N392">
         <v>0.38</v>
       </c>
-    </row>
-    <row r="393" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O392">
+        <v>19</v>
+      </c>
+      <c r="P392">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A393" s="1">
         <v>530330103005</v>
       </c>
@@ -17748,8 +20112,14 @@
       <c r="N393">
         <v>0.37037037037037035</v>
       </c>
-    </row>
-    <row r="394" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O393">
+        <v>20</v>
+      </c>
+      <c r="P393">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A394" s="1">
         <v>530330104011</v>
       </c>
@@ -17792,8 +20162,14 @@
       <c r="N394">
         <v>0.35849056603773582</v>
       </c>
-    </row>
-    <row r="395" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O394">
+        <v>19</v>
+      </c>
+      <c r="P394">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A395" s="1">
         <v>530330104012</v>
       </c>
@@ -17836,8 +20212,14 @@
       <c r="N395">
         <v>0.32142857142857145</v>
       </c>
-    </row>
-    <row r="396" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O395">
+        <v>18</v>
+      </c>
+      <c r="P395">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A396" s="1">
         <v>530330104013</v>
       </c>
@@ -17880,8 +20262,14 @@
       <c r="N396">
         <v>0.30645161290322581</v>
       </c>
-    </row>
-    <row r="397" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O396">
+        <v>19</v>
+      </c>
+      <c r="P396">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A397" s="1">
         <v>530330104021</v>
       </c>
@@ -17924,8 +20312,14 @@
       <c r="N397">
         <v>0.30357142857142855</v>
       </c>
-    </row>
-    <row r="398" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O397">
+        <v>17</v>
+      </c>
+      <c r="P397">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A398" s="1">
         <v>530330104022</v>
       </c>
@@ -17968,8 +20362,14 @@
       <c r="N398">
         <v>0.2982456140350877</v>
       </c>
-    </row>
-    <row r="399" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O398">
+        <v>17</v>
+      </c>
+      <c r="P398">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A399" s="1">
         <v>530330104023</v>
       </c>
@@ -18012,8 +20412,14 @@
       <c r="N399">
         <v>0.31578947368421051</v>
       </c>
-    </row>
-    <row r="400" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O399">
+        <v>18</v>
+      </c>
+      <c r="P399">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A400" s="1">
         <v>530330104024</v>
       </c>
@@ -18056,8 +20462,14 @@
       <c r="N400">
         <v>0.29090909090909089</v>
       </c>
-    </row>
-    <row r="401" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O400">
+        <v>16</v>
+      </c>
+      <c r="P400">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A401" s="1">
         <v>530330105001</v>
       </c>
@@ -18100,8 +20512,14 @@
       <c r="N401">
         <v>0.34615384615384615</v>
       </c>
-    </row>
-    <row r="402" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O401">
+        <v>18</v>
+      </c>
+      <c r="P401">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A402" s="1">
         <v>530330105002</v>
       </c>
@@ -18144,8 +20562,14 @@
       <c r="N402">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="403" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O402">
+        <v>19</v>
+      </c>
+      <c r="P402">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A403" s="1">
         <v>530330105003</v>
       </c>
@@ -18188,8 +20612,14 @@
       <c r="N403">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="404" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O403">
+        <v>22</v>
+      </c>
+      <c r="P403">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A404" s="1">
         <v>530330105004</v>
       </c>
@@ -18232,8 +20662,14 @@
       <c r="N404">
         <v>0.35849056603773582</v>
       </c>
-    </row>
-    <row r="405" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O404">
+        <v>19</v>
+      </c>
+      <c r="P404">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A405" s="1">
         <v>530330105005</v>
       </c>
@@ -18276,8 +20712,14 @@
       <c r="N405">
         <v>0.375</v>
       </c>
-    </row>
-    <row r="406" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O405">
+        <v>21</v>
+      </c>
+      <c r="P405">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A406" s="1">
         <v>530330106001</v>
       </c>
@@ -18320,8 +20762,14 @@
       <c r="N406">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="407" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O406">
+        <v>19</v>
+      </c>
+      <c r="P406">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A407" s="1">
         <v>530330106002</v>
       </c>
@@ -18364,8 +20812,14 @@
       <c r="N407">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="408" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O407">
+        <v>20</v>
+      </c>
+      <c r="P407">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A408" s="1">
         <v>530330106003</v>
       </c>
@@ -18408,8 +20862,14 @@
       <c r="N408">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="409" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O408">
+        <v>21</v>
+      </c>
+      <c r="P408">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A409" s="1">
         <v>530330106004</v>
       </c>
@@ -18452,8 +20912,14 @@
       <c r="N409">
         <v>0.34375</v>
       </c>
-    </row>
-    <row r="410" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O409">
+        <v>22</v>
+      </c>
+      <c r="P409">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A410" s="1">
         <v>530330106005</v>
       </c>
@@ -18496,8 +20962,14 @@
       <c r="N410">
         <v>0.29268292682926828</v>
       </c>
-    </row>
-    <row r="411" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O410">
+        <v>24</v>
+      </c>
+      <c r="P410">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A411" s="1">
         <v>530330106006</v>
       </c>
@@ -18540,8 +21012,14 @@
       <c r="N411">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="412" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O411">
+        <v>21</v>
+      </c>
+      <c r="P411">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A412" s="1">
         <v>530330107011</v>
       </c>
@@ -18584,8 +21062,14 @@
       <c r="N412">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="413" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O412">
+        <v>20</v>
+      </c>
+      <c r="P412">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A413" s="1">
         <v>530330107012</v>
       </c>
@@ -18628,8 +21112,14 @@
       <c r="N413">
         <v>0.33870967741935482</v>
       </c>
-    </row>
-    <row r="414" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O413">
+        <v>21</v>
+      </c>
+      <c r="P413">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A414" s="1">
         <v>530330107021</v>
       </c>
@@ -18672,8 +21162,14 @@
       <c r="N414">
         <v>0.31666666666666665</v>
       </c>
-    </row>
-    <row r="415" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O414">
+        <v>19</v>
+      </c>
+      <c r="P414">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A415" s="1">
         <v>530330107022</v>
       </c>
@@ -18716,8 +21212,14 @@
       <c r="N415">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="416" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O415">
+        <v>19</v>
+      </c>
+      <c r="P415">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A416" s="1">
         <v>530330107023</v>
       </c>
@@ -18760,8 +21262,14 @@
       <c r="N416">
         <v>0.3392857142857143</v>
       </c>
-    </row>
-    <row r="417" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O416">
+        <v>19</v>
+      </c>
+      <c r="P416">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A417" s="1">
         <v>530330108001</v>
       </c>
@@ -18804,8 +21312,14 @@
       <c r="N417">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="418" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O417">
+        <v>21</v>
+      </c>
+      <c r="P417">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A418" s="1">
         <v>530330108002</v>
       </c>
@@ -18848,8 +21362,14 @@
       <c r="N418">
         <v>0.35714285714285715</v>
       </c>
-    </row>
-    <row r="419" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O418">
+        <v>20</v>
+      </c>
+      <c r="P418">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A419" s="1">
         <v>530330108003</v>
       </c>
@@ -18892,8 +21412,14 @@
       <c r="N419">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="420" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O419">
+        <v>18</v>
+      </c>
+      <c r="P419">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A420" s="1">
         <v>530330109001</v>
       </c>
@@ -18936,8 +21462,14 @@
       <c r="N420">
         <v>0.32142857142857145</v>
       </c>
-    </row>
-    <row r="421" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O420">
+        <v>18</v>
+      </c>
+      <c r="P420">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A421" s="1">
         <v>530330109002</v>
       </c>
@@ -18980,8 +21512,14 @@
       <c r="N421">
         <v>0.34042553191489361</v>
       </c>
-    </row>
-    <row r="422" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O421">
+        <v>16</v>
+      </c>
+      <c r="P421">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A422" s="1">
         <v>530330110011</v>
       </c>
@@ -19024,8 +21562,14 @@
       <c r="N422">
         <v>0.33898305084745761</v>
       </c>
-    </row>
-    <row r="423" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O422">
+        <v>20</v>
+      </c>
+      <c r="P422">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A423" s="1">
         <v>530330110012</v>
       </c>
@@ -19068,8 +21612,14 @@
       <c r="N423">
         <v>0.35087719298245612</v>
       </c>
-    </row>
-    <row r="424" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O423">
+        <v>20</v>
+      </c>
+      <c r="P423">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A424" s="1">
         <v>530330110013</v>
       </c>
@@ -19112,8 +21662,14 @@
       <c r="N424">
         <v>0.30303030303030304</v>
       </c>
-    </row>
-    <row r="425" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O424">
+        <v>20</v>
+      </c>
+      <c r="P424">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A425" s="1">
         <v>530330110021</v>
       </c>
@@ -19156,8 +21712,14 @@
       <c r="N425">
         <v>0.24590163934426229</v>
       </c>
-    </row>
-    <row r="426" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O425">
+        <v>15</v>
+      </c>
+      <c r="P425">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A426" s="1">
         <v>530330110022</v>
       </c>
@@ -19200,8 +21762,14 @@
       <c r="N426">
         <v>0.30645161290322581</v>
       </c>
-    </row>
-    <row r="427" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O426">
+        <v>19</v>
+      </c>
+      <c r="P426">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A427" s="1">
         <v>530330110023</v>
       </c>
@@ -19244,8 +21812,14 @@
       <c r="N427">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="428" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O427">
+        <v>18</v>
+      </c>
+      <c r="P427">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A428" s="1">
         <v>530330111011</v>
       </c>
@@ -19288,8 +21862,14 @@
       <c r="N428">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="429" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O428">
+        <v>22</v>
+      </c>
+      <c r="P428">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A429" s="1">
         <v>530330111012</v>
       </c>
@@ -19332,8 +21912,14 @@
       <c r="N429">
         <v>0.38181818181818183</v>
       </c>
-    </row>
-    <row r="430" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O429">
+        <v>21</v>
+      </c>
+      <c r="P429">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A430" s="1">
         <v>530330111013</v>
       </c>
@@ -19376,8 +21962,14 @@
       <c r="N430">
         <v>0.33898305084745761</v>
       </c>
-    </row>
-    <row r="431" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O430">
+        <v>20</v>
+      </c>
+      <c r="P430">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A431" s="1">
         <v>530330111014</v>
       </c>
@@ -19420,8 +22012,14 @@
       <c r="N431">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="432" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O431">
+        <v>21</v>
+      </c>
+      <c r="P431">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A432" s="1">
         <v>530330111021</v>
       </c>
@@ -19464,8 +22062,14 @@
       <c r="N432">
         <v>0.47916666666666669</v>
       </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O432">
+        <v>23</v>
+      </c>
+      <c r="P432">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A433" s="1">
         <v>530330111022</v>
       </c>
@@ -19508,8 +22112,14 @@
       <c r="N433">
         <v>0.33846153846153848</v>
       </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O433">
+        <v>22</v>
+      </c>
+      <c r="P433">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A434" s="1">
         <v>530330111023</v>
       </c>
@@ -19552,8 +22162,14 @@
       <c r="N434">
         <v>0.35483870967741937</v>
       </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O434">
+        <v>22</v>
+      </c>
+      <c r="P434">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A435" s="1">
         <v>530330111024</v>
       </c>
@@ -19596,8 +22212,14 @@
       <c r="N435">
         <v>0.40740740740740738</v>
       </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O435">
+        <v>22</v>
+      </c>
+      <c r="P435">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A436" s="1">
         <v>530330112001</v>
       </c>
@@ -19640,8 +22262,14 @@
       <c r="N436">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O436">
+        <v>20</v>
+      </c>
+      <c r="P436">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A437" s="1">
         <v>530330112002</v>
       </c>
@@ -19684,8 +22312,14 @@
       <c r="N437">
         <v>0.34545454545454546</v>
       </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O437">
+        <v>19</v>
+      </c>
+      <c r="P437">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A438" s="1">
         <v>530330112003</v>
       </c>
@@ -19728,8 +22362,14 @@
       <c r="N438">
         <v>0.32758620689655171</v>
       </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O438">
+        <v>19</v>
+      </c>
+      <c r="P438">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A439" s="1">
         <v>530330113001</v>
       </c>
@@ -19772,8 +22412,14 @@
       <c r="N439">
         <v>0.3188405797101449</v>
       </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O439">
+        <v>22</v>
+      </c>
+      <c r="P439">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A440" s="1">
         <v>530330113002</v>
       </c>
@@ -19816,8 +22462,14 @@
       <c r="N440">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="441" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O440">
+        <v>21</v>
+      </c>
+      <c r="P440">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A441" s="1">
         <v>530330113003</v>
       </c>
@@ -19860,8 +22512,14 @@
       <c r="N441">
         <v>0.36842105263157893</v>
       </c>
-    </row>
-    <row r="442" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O441">
+        <v>21</v>
+      </c>
+      <c r="P441">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A442" s="1">
         <v>530330113004</v>
       </c>
@@ -19904,8 +22562,14 @@
       <c r="N442">
         <v>0.36842105263157893</v>
       </c>
-    </row>
-    <row r="443" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O442">
+        <v>21</v>
+      </c>
+      <c r="P442">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A443" s="1">
         <v>530330113005</v>
       </c>
@@ -19948,8 +22612,14 @@
       <c r="N443">
         <v>0.35087719298245612</v>
       </c>
-    </row>
-    <row r="444" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O443">
+        <v>20</v>
+      </c>
+      <c r="P443">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A444" s="1">
         <v>530330114011</v>
       </c>
@@ -19992,8 +22662,14 @@
       <c r="N444">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O444">
+        <v>22</v>
+      </c>
+      <c r="P444">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A445" s="1">
         <v>530330114012</v>
       </c>
@@ -20036,8 +22712,14 @@
       <c r="N445">
         <v>0.36666666666666664</v>
       </c>
-    </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O445">
+        <v>22</v>
+      </c>
+      <c r="P445">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A446" s="1">
         <v>530330114013</v>
       </c>
@@ -20080,8 +22762,14 @@
       <c r="N446">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="447" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O446">
+        <v>20</v>
+      </c>
+      <c r="P446">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A447" s="1">
         <v>530330114021</v>
       </c>
@@ -20124,8 +22812,14 @@
       <c r="N447">
         <v>0.37931034482758619</v>
       </c>
-    </row>
-    <row r="448" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O447">
+        <v>22</v>
+      </c>
+      <c r="P447">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A448" s="1">
         <v>530330114022</v>
       </c>
@@ -20168,8 +22862,14 @@
       <c r="N448">
         <v>0.3728813559322034</v>
       </c>
-    </row>
-    <row r="449" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O448">
+        <v>22</v>
+      </c>
+      <c r="P448">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A449" s="1">
         <v>530330114023</v>
       </c>
@@ -20212,8 +22912,14 @@
       <c r="N449">
         <v>0.39655172413793105</v>
       </c>
-    </row>
-    <row r="450" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O449">
+        <v>23</v>
+      </c>
+      <c r="P449">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A450" s="1">
         <v>530330115001</v>
       </c>
@@ -20256,8 +22962,14 @@
       <c r="N450">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="451" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O450">
+        <v>20</v>
+      </c>
+      <c r="P450">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A451" s="1">
         <v>530330115002</v>
       </c>
@@ -20300,8 +23012,14 @@
       <c r="N451">
         <v>0.3559322033898305</v>
       </c>
-    </row>
-    <row r="452" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O451">
+        <v>21</v>
+      </c>
+      <c r="P451">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A452" s="1">
         <v>530330115003</v>
       </c>
@@ -20344,8 +23062,14 @@
       <c r="N452">
         <v>0.34482758620689657</v>
       </c>
-    </row>
-    <row r="453" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O452">
+        <v>20</v>
+      </c>
+      <c r="P452">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A453" s="1">
         <v>530330116001</v>
       </c>
@@ -20388,8 +23112,14 @@
       <c r="N453">
         <v>0.33870967741935482</v>
       </c>
-    </row>
-    <row r="454" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O453">
+        <v>21</v>
+      </c>
+      <c r="P453">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A454" s="1">
         <v>530330116002</v>
       </c>
@@ -20432,8 +23162,14 @@
       <c r="N454">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="455" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O454">
+        <v>21</v>
+      </c>
+      <c r="P454">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A455" s="1">
         <v>530330116003</v>
       </c>
@@ -20476,8 +23212,14 @@
       <c r="N455">
         <v>0.36231884057971014</v>
       </c>
-    </row>
-    <row r="456" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O455">
+        <v>25</v>
+      </c>
+      <c r="P455">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A456" s="1">
         <v>530330116004</v>
       </c>
@@ -20520,8 +23262,14 @@
       <c r="N456">
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="457" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O456">
+        <v>25</v>
+      </c>
+      <c r="P456">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A457" s="1">
         <v>530330116005</v>
       </c>
@@ -20564,8 +23312,14 @@
       <c r="N457">
         <v>0.38095238095238093</v>
       </c>
-    </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O457">
+        <v>24</v>
+      </c>
+      <c r="P457">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A458" s="1">
         <v>530330116006</v>
       </c>
@@ -20608,8 +23362,14 @@
       <c r="N458">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O458">
+        <v>22</v>
+      </c>
+      <c r="P458">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A459" s="1">
         <v>530330117001</v>
       </c>
@@ -20652,8 +23412,14 @@
       <c r="N459">
         <v>0.3392857142857143</v>
       </c>
-    </row>
-    <row r="460" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O459">
+        <v>19</v>
+      </c>
+      <c r="P459">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A460" s="1">
         <v>530330117002</v>
       </c>
@@ -20696,8 +23462,14 @@
       <c r="N460">
         <v>0.32835820895522388</v>
       </c>
-    </row>
-    <row r="461" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O460">
+        <v>22</v>
+      </c>
+      <c r="P460">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A461" s="1">
         <v>530330117003</v>
       </c>
@@ -20740,8 +23512,14 @@
       <c r="N461">
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="462" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O461">
+        <v>20</v>
+      </c>
+      <c r="P461">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A462" s="1">
         <v>530330117004</v>
       </c>
@@ -20784,8 +23562,14 @@
       <c r="N462">
         <v>0.32258064516129031</v>
       </c>
-    </row>
-    <row r="463" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O462">
+        <v>20</v>
+      </c>
+      <c r="P462">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A463" s="1">
         <v>530330118001</v>
       </c>
@@ -20828,8 +23612,14 @@
       <c r="N463">
         <v>0.35820895522388058</v>
       </c>
-    </row>
-    <row r="464" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O463">
+        <v>24</v>
+      </c>
+      <c r="P463">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A464" s="1">
         <v>530330118002</v>
       </c>
@@ -20872,8 +23662,14 @@
       <c r="N464">
         <v>0.31818181818181818</v>
       </c>
-    </row>
-    <row r="465" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O464">
+        <v>21</v>
+      </c>
+      <c r="P464">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A465" s="1">
         <v>530330118003</v>
       </c>
@@ -20916,8 +23712,14 @@
       <c r="N465">
         <v>0.31746031746031744</v>
       </c>
-    </row>
-    <row r="466" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O465">
+        <v>20</v>
+      </c>
+      <c r="P465">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A466" s="1">
         <v>530330118004</v>
       </c>
@@ -20960,8 +23762,14 @@
       <c r="N466">
         <v>0.36206896551724138</v>
       </c>
-    </row>
-    <row r="467" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O466">
+        <v>21</v>
+      </c>
+      <c r="P466">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A467" s="1">
         <v>530330118005</v>
       </c>
@@ -21004,8 +23812,14 @@
       <c r="N467">
         <v>0.36065573770491804</v>
       </c>
-    </row>
-    <row r="468" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O467">
+        <v>22</v>
+      </c>
+      <c r="P467">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A468" s="1">
         <v>530330118006</v>
       </c>
@@ -21048,8 +23862,14 @@
       <c r="N468">
         <v>0.40625</v>
       </c>
-    </row>
-    <row r="469" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O468">
+        <v>26</v>
+      </c>
+      <c r="P468">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A469" s="1">
         <v>530330119001</v>
       </c>
@@ -21092,8 +23912,14 @@
       <c r="N469">
         <v>0.30136986301369861</v>
       </c>
-    </row>
-    <row r="470" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O469">
+        <v>22</v>
+      </c>
+      <c r="P469">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A470" s="1">
         <v>530330119002</v>
       </c>
@@ -21136,8 +23962,14 @@
       <c r="N470">
         <v>0.30666666666666664</v>
       </c>
-    </row>
-    <row r="471" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O470">
+        <v>23</v>
+      </c>
+      <c r="P470">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A471" s="1">
         <v>530330119003</v>
       </c>
@@ -21180,8 +24012,14 @@
       <c r="N471">
         <v>0.28169014084507044</v>
       </c>
-    </row>
-    <row r="472" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O471">
+        <v>20</v>
+      </c>
+      <c r="P471">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A472" s="1">
         <v>530330119004</v>
       </c>
@@ -21224,8 +24062,14 @@
       <c r="N472">
         <v>0.3125</v>
       </c>
-    </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O472">
+        <v>20</v>
+      </c>
+      <c r="P472">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A473" s="1">
         <v>530330119005</v>
       </c>
@@ -21268,8 +24112,14 @@
       <c r="N473">
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O473">
+        <v>20</v>
+      </c>
+      <c r="P473">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A474" s="1">
         <v>530330120001</v>
       </c>
@@ -21312,8 +24162,14 @@
       <c r="N474">
         <v>0.34920634920634919</v>
       </c>
-    </row>
-    <row r="475" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O474">
+        <v>22</v>
+      </c>
+      <c r="P474">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A475" s="1">
         <v>530330120002</v>
       </c>
@@ -21356,8 +24212,14 @@
       <c r="N475">
         <v>0.32</v>
       </c>
-    </row>
-    <row r="476" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O475">
+        <v>24</v>
+      </c>
+      <c r="P475">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A476" s="1">
         <v>530330120003</v>
       </c>
@@ -21400,8 +24262,14 @@
       <c r="N476">
         <v>0.35294117647058826</v>
       </c>
-    </row>
-    <row r="477" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O476">
+        <v>24</v>
+      </c>
+      <c r="P476">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A477" s="1">
         <v>530330121001</v>
       </c>
@@ -21444,8 +24312,14 @@
       <c r="N477">
         <v>0.34615384615384615</v>
       </c>
-    </row>
-    <row r="478" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O477">
+        <v>27</v>
+      </c>
+      <c r="P477">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A478" s="1">
         <v>530330121002</v>
       </c>
@@ -21488,8 +24362,14 @@
       <c r="N478">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="479" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O478">
+        <v>24</v>
+      </c>
+      <c r="P478">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A479" s="1">
         <v>530330260011</v>
       </c>
@@ -21529,8 +24409,14 @@
       <c r="N479">
         <v>0.30769230769230771</v>
       </c>
-    </row>
-    <row r="480" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O479">
+        <v>24</v>
+      </c>
+      <c r="P479">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A480" s="1">
         <v>530330264004</v>
       </c>
@@ -21570,8 +24456,14 @@
       <c r="N480">
         <v>0.27397260273972601</v>
       </c>
-    </row>
-    <row r="481" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O480">
+        <v>20</v>
+      </c>
+      <c r="P480">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A481" s="1">
         <v>530330264005</v>
       </c>
@@ -21611,8 +24503,14 @@
       <c r="N481">
         <v>0.29230769230769232</v>
       </c>
-    </row>
-    <row r="482" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O481">
+        <v>19</v>
+      </c>
+      <c r="P481">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A482" s="1">
         <v>530330265001</v>
       </c>
@@ -21655,8 +24553,14 @@
       <c r="N482">
         <v>0.30303030303030304</v>
       </c>
-    </row>
-    <row r="483" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="O482">
+        <v>20</v>
+      </c>
+      <c r="P482">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A483" s="1">
         <v>530339901000</v>
       </c>
@@ -21695,6 +24599,12 @@
       </c>
       <c r="N483">
         <v>0.26771653543307089</v>
+      </c>
+      <c r="O483">
+        <v>68</v>
+      </c>
+      <c r="P483">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -21704,10 +24614,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -21718,7 +24628,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>14</v>
@@ -21820,12 +24730,28 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data/Mobility_indicators.xlsx
+++ b/data/Mobility_indicators.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27011"/>
+  <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JacobRich/Desktop/DSSG2017-Equity/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="19200" windowHeight="19400"/>
   </bookViews>
   <sheets>
     <sheet name="indicators" sheetId="1" r:id="rId1"/>
     <sheet name="descriptions" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -214,12 +227,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -249,12 +262,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -460,16 +473,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P483"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O1" sqref="O1:P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,7 +532,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>530330001001</v>
       </c>
@@ -569,7 +582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>530330001002</v>
       </c>
@@ -619,7 +632,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>530330001003</v>
       </c>
@@ -669,7 +682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>530330001004</v>
       </c>
@@ -719,7 +732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>530330001005</v>
       </c>
@@ -769,7 +782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>530330002001</v>
       </c>
@@ -819,7 +832,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>530330002002</v>
       </c>
@@ -869,7 +882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>530330002003</v>
       </c>
@@ -919,7 +932,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>530330002004</v>
       </c>
@@ -969,7 +982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>530330002005</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>530330002006</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>530330003001</v>
       </c>
@@ -1119,7 +1132,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>530330003002</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>530330004011</v>
       </c>
@@ -1219,7 +1232,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>530330004012</v>
       </c>
@@ -1269,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>530330004013</v>
       </c>
@@ -1319,7 +1332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>530330004021</v>
       </c>
@@ -1369,7 +1382,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>530330004022</v>
       </c>
@@ -1419,7 +1432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>530330004023</v>
       </c>
@@ -1469,7 +1482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>530330004024</v>
       </c>
@@ -1519,7 +1532,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>530330005001</v>
       </c>
@@ -1569,7 +1582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>530330005002</v>
       </c>
@@ -1619,7 +1632,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>530330005003</v>
       </c>
@@ -1669,7 +1682,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>530330006001</v>
       </c>
@@ -1719,7 +1732,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>530330006002</v>
       </c>
@@ -1769,7 +1782,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>530330006003</v>
       </c>
@@ -1819,7 +1832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>530330006004</v>
       </c>
@@ -1869,7 +1882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>530330006005</v>
       </c>
@@ -1919,7 +1932,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>530330006006</v>
       </c>
@@ -1969,7 +1982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>530330007001</v>
       </c>
@@ -2019,7 +2032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>530330007002</v>
       </c>
@@ -2069,7 +2082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>530330007003</v>
       </c>
@@ -2119,7 +2132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>530330007004</v>
       </c>
@@ -2169,7 +2182,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>530330008001</v>
       </c>
@@ -2219,7 +2232,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>530330008002</v>
       </c>
@@ -2269,7 +2282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>530330009001</v>
       </c>
@@ -2319,7 +2332,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>530330009002</v>
       </c>
@@ -2369,7 +2382,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>530330010001</v>
       </c>
@@ -2419,7 +2432,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>530330010002</v>
       </c>
@@ -2469,7 +2482,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>530330011001</v>
       </c>
@@ -2519,7 +2532,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>530330011002</v>
       </c>
@@ -2569,7 +2582,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>530330012001</v>
       </c>
@@ -2619,7 +2632,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>530330012002</v>
       </c>
@@ -2669,7 +2682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>530330012003</v>
       </c>
@@ -2719,7 +2732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>530330012004</v>
       </c>
@@ -2769,7 +2782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>530330012005</v>
       </c>
@@ -2819,7 +2832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>530330013001</v>
       </c>
@@ -2869,7 +2882,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>530330013002</v>
       </c>
@@ -2919,7 +2932,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>530330013003</v>
       </c>
@@ -2969,7 +2982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>530330014001</v>
       </c>
@@ -3019,7 +3032,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>530330014002</v>
       </c>
@@ -3069,7 +3082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>530330014003</v>
       </c>
@@ -3119,7 +3132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>530330014004</v>
       </c>
@@ -3169,7 +3182,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>530330015001</v>
       </c>
@@ -3219,7 +3232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>530330015002</v>
       </c>
@@ -3269,7 +3282,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>530330016001</v>
       </c>
@@ -3319,7 +3332,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>530330016002</v>
       </c>
@@ -3369,7 +3382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>530330016003</v>
       </c>
@@ -3419,7 +3432,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>530330017011</v>
       </c>
@@ -3469,7 +3482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>530330017012</v>
       </c>
@@ -3519,7 +3532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>530330017013</v>
       </c>
@@ -3569,7 +3582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>530330017021</v>
       </c>
@@ -3619,7 +3632,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>530330017022</v>
       </c>
@@ -3669,7 +3682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>530330017023</v>
       </c>
@@ -3719,7 +3732,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>530330017024</v>
       </c>
@@ -3769,7 +3782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>530330018001</v>
       </c>
@@ -3819,7 +3832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>530330018002</v>
       </c>
@@ -3869,7 +3882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>530330018003</v>
       </c>
@@ -3919,7 +3932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>530330019001</v>
       </c>
@@ -3969,7 +3982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>530330019002</v>
       </c>
@@ -4019,7 +4032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>530330019003</v>
       </c>
@@ -4069,7 +4082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>530330020001</v>
       </c>
@@ -4119,7 +4132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>530330020002</v>
       </c>
@@ -4169,7 +4182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>530330020003</v>
       </c>
@@ -4219,7 +4232,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>530330021001</v>
       </c>
@@ -4269,7 +4282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>530330021002</v>
       </c>
@@ -4319,7 +4332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>530330021003</v>
       </c>
@@ -4369,7 +4382,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>530330022001</v>
       </c>
@@ -4419,7 +4432,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>530330022002</v>
       </c>
@@ -4469,7 +4482,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>530330022003</v>
       </c>
@@ -4519,7 +4532,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>530330022004</v>
       </c>
@@ -4569,7 +4582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>530330024001</v>
       </c>
@@ -4619,7 +4632,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>530330024002</v>
       </c>
@@ -4669,7 +4682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>530330024003</v>
       </c>
@@ -4719,7 +4732,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>530330025001</v>
       </c>
@@ -4769,7 +4782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>530330025002</v>
       </c>
@@ -4819,7 +4832,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>530330026001</v>
       </c>
@@ -4869,7 +4882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>530330026002</v>
       </c>
@@ -4919,7 +4932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>530330026003</v>
       </c>
@@ -4969,7 +4982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>530330026004</v>
       </c>
@@ -5019,7 +5032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>530330027001</v>
       </c>
@@ -5069,7 +5082,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>530330027002</v>
       </c>
@@ -5119,7 +5132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>530330027003</v>
       </c>
@@ -5169,7 +5182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>530330027004</v>
       </c>
@@ -5219,7 +5232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>530330028001</v>
       </c>
@@ -5269,7 +5282,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>530330028002</v>
       </c>
@@ -5319,7 +5332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>530330028003</v>
       </c>
@@ -5369,7 +5382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>530330028004</v>
       </c>
@@ -5419,7 +5432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>530330029001</v>
       </c>
@@ -5469,7 +5482,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>530330029002</v>
       </c>
@@ -5519,7 +5532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>530330029003</v>
       </c>
@@ -5569,7 +5582,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>530330030001</v>
       </c>
@@ -5619,7 +5632,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>530330030002</v>
       </c>
@@ -5669,7 +5682,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>530330030003</v>
       </c>
@@ -5719,7 +5732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>530330030004</v>
       </c>
@@ -5769,7 +5782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>530330031001</v>
       </c>
@@ -5819,7 +5832,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>530330031002</v>
       </c>
@@ -5869,7 +5882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>530330031003</v>
       </c>
@@ -5919,7 +5932,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>530330031004</v>
       </c>
@@ -5969,7 +5982,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>530330031005</v>
       </c>
@@ -6019,7 +6032,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>530330032001</v>
       </c>
@@ -6069,7 +6082,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>530330032002</v>
       </c>
@@ -6119,7 +6132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>530330032003</v>
       </c>
@@ -6169,7 +6182,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>530330032004</v>
       </c>
@@ -6219,7 +6232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>530330032005</v>
       </c>
@@ -6269,7 +6282,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>530330032006</v>
       </c>
@@ -6319,7 +6332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>530330032007</v>
       </c>
@@ -6369,7 +6382,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>530330033001</v>
       </c>
@@ -6419,7 +6432,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>530330033002</v>
       </c>
@@ -6469,7 +6482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>530330033003</v>
       </c>
@@ -6519,7 +6532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>530330033004</v>
       </c>
@@ -6569,7 +6582,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>530330033005</v>
       </c>
@@ -6619,7 +6632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>530330034001</v>
       </c>
@@ -6669,7 +6682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>530330034002</v>
       </c>
@@ -6719,7 +6732,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>530330034003</v>
       </c>
@@ -6769,7 +6782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>530330035001</v>
       </c>
@@ -6819,7 +6832,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>530330035002</v>
       </c>
@@ -6869,7 +6882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>530330035003</v>
       </c>
@@ -6919,7 +6932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>530330036001</v>
       </c>
@@ -6969,7 +6982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>530330036002</v>
       </c>
@@ -7019,7 +7032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>530330036003</v>
       </c>
@@ -7069,7 +7082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>530330036004</v>
       </c>
@@ -7119,7 +7132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>530330038001</v>
       </c>
@@ -7169,7 +7182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>530330038002</v>
       </c>
@@ -7219,7 +7232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>530330039001</v>
       </c>
@@ -7269,7 +7282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>530330039002</v>
       </c>
@@ -7319,7 +7332,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>530330040001</v>
       </c>
@@ -7369,7 +7382,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>530330040002</v>
       </c>
@@ -7419,7 +7432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>530330041001</v>
       </c>
@@ -7469,7 +7482,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>530330041002</v>
       </c>
@@ -7519,7 +7532,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>530330041003</v>
       </c>
@@ -7569,7 +7582,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>530330041004</v>
       </c>
@@ -7619,7 +7632,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>530330041005</v>
       </c>
@@ -7669,7 +7682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>530330041006</v>
       </c>
@@ -7719,7 +7732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>530330042001</v>
       </c>
@@ -7769,7 +7782,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>530330042002</v>
       </c>
@@ -7819,7 +7832,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>530330042003</v>
       </c>
@@ -7869,7 +7882,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>530330042004</v>
       </c>
@@ -7919,7 +7932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>530330042005</v>
       </c>
@@ -7969,7 +7982,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>530330043011</v>
       </c>
@@ -8019,7 +8032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>530330043012</v>
       </c>
@@ -8069,7 +8082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>530330043013</v>
       </c>
@@ -8119,7 +8132,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>530330043021</v>
       </c>
@@ -8169,7 +8182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>530330043022</v>
       </c>
@@ -8219,7 +8232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>530330044001</v>
       </c>
@@ -8269,7 +8282,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>530330044002</v>
       </c>
@@ -8319,7 +8332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>530330044003</v>
       </c>
@@ -8369,7 +8382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>530330044004</v>
       </c>
@@ -8419,7 +8432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>530330045001</v>
       </c>
@@ -8469,7 +8482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>530330045002</v>
       </c>
@@ -8519,7 +8532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>530330046001</v>
       </c>
@@ -8569,7 +8582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>530330046002</v>
       </c>
@@ -8619,7 +8632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>530330046003</v>
       </c>
@@ -8669,7 +8682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>530330047001</v>
       </c>
@@ -8719,7 +8732,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>530330047002</v>
       </c>
@@ -8769,7 +8782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>530330047003</v>
       </c>
@@ -8819,7 +8832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>530330047004</v>
       </c>
@@ -8869,7 +8882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>530330048001</v>
       </c>
@@ -8919,7 +8932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>530330048002</v>
       </c>
@@ -8969,7 +8982,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>530330048003</v>
       </c>
@@ -9019,7 +9032,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>530330048004</v>
       </c>
@@ -9069,7 +9082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>530330049001</v>
       </c>
@@ -9119,7 +9132,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>530330049002</v>
       </c>
@@ -9169,7 +9182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>530330049003</v>
       </c>
@@ -9219,7 +9232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>530330049004</v>
       </c>
@@ -9269,7 +9282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>530330049005</v>
       </c>
@@ -9319,7 +9332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>530330050001</v>
       </c>
@@ -9369,7 +9382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>530330050002</v>
       </c>
@@ -9419,7 +9432,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>530330050003</v>
       </c>
@@ -9469,7 +9482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>530330051001</v>
       </c>
@@ -9519,7 +9532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>530330051002</v>
       </c>
@@ -9569,7 +9582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>530330051003</v>
       </c>
@@ -9619,7 +9632,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>530330052001</v>
       </c>
@@ -9669,7 +9682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>530330052002</v>
       </c>
@@ -9719,7 +9732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>530330052003</v>
       </c>
@@ -9769,7 +9782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>530330052004</v>
       </c>
@@ -9819,7 +9832,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>530330052005</v>
       </c>
@@ -9869,7 +9882,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>530330053011</v>
       </c>
@@ -9919,7 +9932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>530330053012</v>
       </c>
@@ -9969,7 +9982,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>530330053013</v>
       </c>
@@ -10019,7 +10032,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>530330053014</v>
       </c>
@@ -10069,7 +10082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>530330053021</v>
       </c>
@@ -10119,7 +10132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>530330053022</v>
       </c>
@@ -10169,7 +10182,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>530330053023</v>
       </c>
@@ -10219,7 +10232,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>530330054001</v>
       </c>
@@ -10269,7 +10282,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>530330054002</v>
       </c>
@@ -10319,7 +10332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>530330054003</v>
       </c>
@@ -10369,7 +10382,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>530330054004</v>
       </c>
@@ -10419,7 +10432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>530330056001</v>
       </c>
@@ -10469,7 +10482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>530330056002</v>
       </c>
@@ -10519,7 +10532,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>530330056003</v>
       </c>
@@ -10569,7 +10582,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>530330056004</v>
       </c>
@@ -10619,7 +10632,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>530330056005</v>
       </c>
@@ -10669,7 +10682,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>530330057001</v>
       </c>
@@ -10719,7 +10732,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>530330057002</v>
       </c>
@@ -10769,7 +10782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>530330057003</v>
       </c>
@@ -10819,7 +10832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>530330057004</v>
       </c>
@@ -10869,7 +10882,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>530330057005</v>
       </c>
@@ -10919,7 +10932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>530330057006</v>
       </c>
@@ -10969,7 +10982,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>530330058011</v>
       </c>
@@ -11019,7 +11032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>530330058012</v>
       </c>
@@ -11069,7 +11082,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>530330058013</v>
       </c>
@@ -11119,7 +11132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>530330058014</v>
       </c>
@@ -11169,7 +11182,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>530330058021</v>
       </c>
@@ -11219,7 +11232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>530330058022</v>
       </c>
@@ -11269,7 +11282,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>530330058023</v>
       </c>
@@ -11319,7 +11332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>530330059001</v>
       </c>
@@ -11369,7 +11382,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>530330059002</v>
       </c>
@@ -11419,7 +11432,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>530330059003</v>
       </c>
@@ -11469,7 +11482,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>530330059004</v>
       </c>
@@ -11519,7 +11532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>530330059005</v>
       </c>
@@ -11569,7 +11582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>530330060001</v>
       </c>
@@ -11619,7 +11632,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>530330060002</v>
       </c>
@@ -11669,7 +11682,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>530330060003</v>
       </c>
@@ -11719,7 +11732,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>530330060004</v>
       </c>
@@ -11769,7 +11782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>530330061001</v>
       </c>
@@ -11819,7 +11832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>530330061002</v>
       </c>
@@ -11869,7 +11882,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>530330061003</v>
       </c>
@@ -11919,7 +11932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>530330061004</v>
       </c>
@@ -11969,7 +11982,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>530330062001</v>
       </c>
@@ -12019,7 +12032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>530330062002</v>
       </c>
@@ -12069,7 +12082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>530330062003</v>
       </c>
@@ -12119,7 +12132,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>530330063001</v>
       </c>
@@ -12169,7 +12182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>530330063002</v>
       </c>
@@ -12219,7 +12232,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>530330063003</v>
       </c>
@@ -12269,7 +12282,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>530330063004</v>
       </c>
@@ -12319,7 +12332,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>530330064001</v>
       </c>
@@ -12369,7 +12382,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>530330064002</v>
       </c>
@@ -12419,7 +12432,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>530330064003</v>
       </c>
@@ -12469,7 +12482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>530330065001</v>
       </c>
@@ -12519,7 +12532,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>530330065002</v>
       </c>
@@ -12569,7 +12582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>530330065003</v>
       </c>
@@ -12619,7 +12632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>530330066001</v>
       </c>
@@ -12669,7 +12682,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>530330066002</v>
       </c>
@@ -12719,7 +12732,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>530330067001</v>
       </c>
@@ -12769,7 +12782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>530330067002</v>
       </c>
@@ -12819,7 +12832,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>530330067003</v>
       </c>
@@ -12869,7 +12882,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>530330067004</v>
       </c>
@@ -12919,7 +12932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>530330068001</v>
       </c>
@@ -12969,7 +12982,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>530330068002</v>
       </c>
@@ -13019,7 +13032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>530330069001</v>
       </c>
@@ -13069,7 +13082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>530330069002</v>
       </c>
@@ -13119,7 +13132,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>530330069003</v>
       </c>
@@ -13169,7 +13182,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>530330069004</v>
       </c>
@@ -13219,7 +13232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>530330070001</v>
       </c>
@@ -13269,7 +13282,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>530330070002</v>
       </c>
@@ -13319,7 +13332,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>530330070003</v>
       </c>
@@ -13369,7 +13382,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>530330070004</v>
       </c>
@@ -13419,7 +13432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>530330070005</v>
       </c>
@@ -13469,7 +13482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>530330070006</v>
       </c>
@@ -13519,7 +13532,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>530330071001</v>
       </c>
@@ -13569,7 +13582,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>530330071002</v>
       </c>
@@ -13619,7 +13632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>530330072001</v>
       </c>
@@ -13669,7 +13682,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>530330072002</v>
       </c>
@@ -13719,7 +13732,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>530330072003</v>
       </c>
@@ -13769,7 +13782,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>530330073001</v>
       </c>
@@ -13819,7 +13832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>530330073002</v>
       </c>
@@ -13869,7 +13882,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>530330073003</v>
       </c>
@@ -13919,7 +13932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>530330074011</v>
       </c>
@@ -13969,7 +13982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>530330074012</v>
       </c>
@@ -14019,7 +14032,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>530330074013</v>
       </c>
@@ -14069,7 +14082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>530330074014</v>
       </c>
@@ -14119,7 +14132,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>530330074021</v>
       </c>
@@ -14169,7 +14182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>530330074022</v>
       </c>
@@ -14219,7 +14232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>530330074023</v>
       </c>
@@ -14269,7 +14282,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>530330075001</v>
       </c>
@@ -14319,7 +14332,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>530330075002</v>
       </c>
@@ -14369,7 +14382,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>530330075003</v>
       </c>
@@ -14419,7 +14432,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>530330075004</v>
       </c>
@@ -14469,7 +14482,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>530330075005</v>
       </c>
@@ -14519,7 +14532,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>530330076001</v>
       </c>
@@ -14569,7 +14582,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>530330076002</v>
       </c>
@@ -14619,7 +14632,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>530330076003</v>
       </c>
@@ -14669,7 +14682,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>530330077001</v>
       </c>
@@ -14719,7 +14732,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>530330077002</v>
       </c>
@@ -14769,7 +14782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>530330077003</v>
       </c>
@@ -14819,7 +14832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>530330077004</v>
       </c>
@@ -14869,7 +14882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>530330078001</v>
       </c>
@@ -14919,7 +14932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>530330078002</v>
       </c>
@@ -14969,7 +14982,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>530330078003</v>
       </c>
@@ -15019,7 +15032,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>530330078004</v>
       </c>
@@ -15069,7 +15082,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>530330079001</v>
       </c>
@@ -15119,7 +15132,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>530330079002</v>
       </c>
@@ -15169,7 +15182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>530330079003</v>
       </c>
@@ -15219,7 +15232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>530330079004</v>
       </c>
@@ -15269,7 +15282,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>530330079005</v>
       </c>
@@ -15319,7 +15332,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>530330080011</v>
       </c>
@@ -15369,7 +15382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="299" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>530330080012</v>
       </c>
@@ -15419,7 +15432,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="300" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>530330080013</v>
       </c>
@@ -15469,7 +15482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="301" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>530330080014</v>
       </c>
@@ -15519,7 +15532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="302" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>530330080015</v>
       </c>
@@ -15569,7 +15582,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="303" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>530330080021</v>
       </c>
@@ -15619,7 +15632,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="304" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>530330080022</v>
       </c>
@@ -15669,7 +15682,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="305" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>530330081001</v>
       </c>
@@ -15719,7 +15732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="306" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>530330081002</v>
       </c>
@@ -15769,7 +15782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="307" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>530330081003</v>
       </c>
@@ -15819,7 +15832,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="308" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>530330082001</v>
       </c>
@@ -15869,7 +15882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="309" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>530330082002</v>
       </c>
@@ -15919,7 +15932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="310" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>530330082003</v>
       </c>
@@ -15969,7 +15982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="311" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>530330083001</v>
       </c>
@@ -16019,7 +16032,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>530330083002</v>
       </c>
@@ -16069,7 +16082,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>530330084001</v>
       </c>
@@ -16119,7 +16132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>530330084002</v>
       </c>
@@ -16169,7 +16182,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>530330084003</v>
       </c>
@@ -16219,7 +16232,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="316" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>530330085001</v>
       </c>
@@ -16269,7 +16282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="317" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>530330085002</v>
       </c>
@@ -16319,7 +16332,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="318" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>530330085003</v>
       </c>
@@ -16369,7 +16382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>530330086001</v>
       </c>
@@ -16419,7 +16432,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="320" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>530330086002</v>
       </c>
@@ -16469,7 +16482,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="321" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>530330086003</v>
       </c>
@@ -16519,7 +16532,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="322" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>530330087001</v>
       </c>
@@ -16569,7 +16582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="323" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>530330087002</v>
       </c>
@@ -16619,7 +16632,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="324" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>530330087003</v>
       </c>
@@ -16669,7 +16682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="325" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>530330088001</v>
       </c>
@@ -16719,7 +16732,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="326" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>530330088002</v>
       </c>
@@ -16769,7 +16782,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="327" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>530330088003</v>
       </c>
@@ -16819,7 +16832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="328" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>530330089001</v>
       </c>
@@ -16869,7 +16882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="329" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>530330089002</v>
       </c>
@@ -16919,7 +16932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="330" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>530330089003</v>
       </c>
@@ -16969,7 +16982,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="331" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>530330089004</v>
       </c>
@@ -17019,7 +17032,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="332" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>530330090001</v>
       </c>
@@ -17069,7 +17082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="333" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>530330090002</v>
       </c>
@@ -17119,7 +17132,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="334" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>530330091001</v>
       </c>
@@ -17169,7 +17182,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="335" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>530330091002</v>
       </c>
@@ -17219,7 +17232,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="336" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>530330092001</v>
       </c>
@@ -17269,7 +17282,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="337" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>530330092002</v>
       </c>
@@ -17319,7 +17332,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="338" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>530330093001</v>
       </c>
@@ -17369,7 +17382,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="339" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>530330093002</v>
       </c>
@@ -17419,7 +17432,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="340" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>530330093003</v>
       </c>
@@ -17469,7 +17482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="341" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>530330094001</v>
       </c>
@@ -17519,7 +17532,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="342" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>530330094002</v>
       </c>
@@ -17569,7 +17582,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>530330094003</v>
       </c>
@@ -17619,7 +17632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="344" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>530330094004</v>
       </c>
@@ -17669,7 +17682,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="345" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>530330094005</v>
       </c>
@@ -17719,7 +17732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="346" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>530330095001</v>
       </c>
@@ -17769,7 +17782,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>530330095002</v>
       </c>
@@ -17819,7 +17832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="348" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>530330095003</v>
       </c>
@@ -17869,7 +17882,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="349" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>530330095004</v>
       </c>
@@ -17919,7 +17932,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="350" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>530330096001</v>
       </c>
@@ -17969,7 +17982,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>530330096002</v>
       </c>
@@ -18019,7 +18032,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="352" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>530330096003</v>
       </c>
@@ -18069,7 +18082,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="353" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>530330096004</v>
       </c>
@@ -18119,7 +18132,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="354" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>530330096005</v>
       </c>
@@ -18169,7 +18182,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>530330097011</v>
       </c>
@@ -18219,7 +18232,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="356" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>530330097012</v>
       </c>
@@ -18269,7 +18282,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="357" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>530330097013</v>
       </c>
@@ -18319,7 +18332,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="358" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>530330097014</v>
       </c>
@@ -18369,7 +18382,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="359" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>530330097021</v>
       </c>
@@ -18419,7 +18432,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>530330097022</v>
       </c>
@@ -18469,7 +18482,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="361" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>530330097023</v>
       </c>
@@ -18519,7 +18532,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="362" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>530330097024</v>
       </c>
@@ -18569,7 +18582,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="363" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>530330097025</v>
       </c>
@@ -18619,7 +18632,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>530330098001</v>
       </c>
@@ -18669,7 +18682,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="365" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>530330098002</v>
       </c>
@@ -18719,7 +18732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="366" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>530330098003</v>
       </c>
@@ -18769,7 +18782,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="367" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>530330098004</v>
       </c>
@@ -18819,7 +18832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>530330098005</v>
       </c>
@@ -18869,7 +18882,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="369" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>530330099001</v>
       </c>
@@ -18919,7 +18932,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="370" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>530330099002</v>
       </c>
@@ -18969,7 +18982,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="371" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>530330099003</v>
       </c>
@@ -19019,7 +19032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>530330099004</v>
       </c>
@@ -19069,7 +19082,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="373" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>530330100011</v>
       </c>
@@ -19119,7 +19132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="374" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>530330100012</v>
       </c>
@@ -19169,7 +19182,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>530330100013</v>
       </c>
@@ -19219,7 +19232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="376" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>530330100021</v>
       </c>
@@ -19269,7 +19282,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="377" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>530330100022</v>
       </c>
@@ -19319,7 +19332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="378" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>530330100023</v>
       </c>
@@ -19369,7 +19382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>530330100024</v>
       </c>
@@ -19419,7 +19432,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="380" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>530330101001</v>
       </c>
@@ -19469,7 +19482,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="381" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>530330101002</v>
       </c>
@@ -19519,7 +19532,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="382" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>530330101003</v>
       </c>
@@ -19569,7 +19582,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="383" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>530330101004</v>
       </c>
@@ -19619,7 +19632,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>530330101005</v>
       </c>
@@ -19669,7 +19682,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="385" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>530330102001</v>
       </c>
@@ -19719,7 +19732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="386" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>530330102002</v>
       </c>
@@ -19769,7 +19782,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="387" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>530330102003</v>
       </c>
@@ -19819,7 +19832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>530330102004</v>
       </c>
@@ -19869,7 +19882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="389" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>530330103001</v>
       </c>
@@ -19919,7 +19932,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="390" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>530330103002</v>
       </c>
@@ -19969,7 +19982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="391" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>530330103003</v>
       </c>
@@ -20019,7 +20032,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>530330103004</v>
       </c>
@@ -20069,7 +20082,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="393" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>530330103005</v>
       </c>
@@ -20119,7 +20132,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="394" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>530330104011</v>
       </c>
@@ -20169,7 +20182,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>530330104012</v>
       </c>
@@ -20219,7 +20232,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="396" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>530330104013</v>
       </c>
@@ -20269,7 +20282,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="397" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>530330104021</v>
       </c>
@@ -20319,7 +20332,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="398" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>530330104022</v>
       </c>
@@ -20369,7 +20382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>530330104023</v>
       </c>
@@ -20419,7 +20432,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="400" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>530330104024</v>
       </c>
@@ -20469,7 +20482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="401" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>530330105001</v>
       </c>
@@ -20519,7 +20532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>530330105002</v>
       </c>
@@ -20569,7 +20582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="403" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>530330105003</v>
       </c>
@@ -20619,7 +20632,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="404" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>530330105004</v>
       </c>
@@ -20669,7 +20682,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="405" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>530330105005</v>
       </c>
@@ -20719,7 +20732,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="406" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>530330106001</v>
       </c>
@@ -20769,7 +20782,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="407" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>530330106002</v>
       </c>
@@ -20819,7 +20832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="408" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>530330106003</v>
       </c>
@@ -20869,7 +20882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="409" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>530330106004</v>
       </c>
@@ -20919,7 +20932,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="410" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>530330106005</v>
       </c>
@@ -20969,7 +20982,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="411" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>530330106006</v>
       </c>
@@ -21019,7 +21032,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="412" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>530330107011</v>
       </c>
@@ -21069,7 +21082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="413" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>530330107012</v>
       </c>
@@ -21119,7 +21132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="414" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>530330107021</v>
       </c>
@@ -21169,7 +21182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="415" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>530330107022</v>
       </c>
@@ -21219,7 +21232,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="416" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>530330107023</v>
       </c>
@@ -21269,7 +21282,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="417" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>530330108001</v>
       </c>
@@ -21319,7 +21332,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="418" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>530330108002</v>
       </c>
@@ -21369,7 +21382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="419" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>530330108003</v>
       </c>
@@ -21419,7 +21432,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="420" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>530330109001</v>
       </c>
@@ -21469,7 +21482,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="421" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>530330109002</v>
       </c>
@@ -21519,7 +21532,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="422" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>530330110011</v>
       </c>
@@ -21569,7 +21582,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="423" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>530330110012</v>
       </c>
@@ -21619,7 +21632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="424" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>530330110013</v>
       </c>
@@ -21669,7 +21682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="425" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>530330110021</v>
       </c>
@@ -21719,7 +21732,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="426" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>530330110022</v>
       </c>
@@ -21769,7 +21782,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="427" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>530330110023</v>
       </c>
@@ -21819,7 +21832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="428" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>530330111011</v>
       </c>
@@ -21869,7 +21882,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="429" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>530330111012</v>
       </c>
@@ -21919,7 +21932,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="430" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>530330111013</v>
       </c>
@@ -21969,7 +21982,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="431" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>530330111014</v>
       </c>
@@ -22019,7 +22032,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="432" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>530330111021</v>
       </c>
@@ -22069,7 +22082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="433" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>530330111022</v>
       </c>
@@ -22119,7 +22132,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="434" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>530330111023</v>
       </c>
@@ -22169,7 +22182,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="435" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>530330111024</v>
       </c>
@@ -22219,7 +22232,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="436" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>530330112001</v>
       </c>
@@ -22269,7 +22282,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="437" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>530330112002</v>
       </c>
@@ -22319,7 +22332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="438" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>530330112003</v>
       </c>
@@ -22369,7 +22382,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="439" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>530330113001</v>
       </c>
@@ -22419,7 +22432,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="440" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>530330113002</v>
       </c>
@@ -22469,7 +22482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="441" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>530330113003</v>
       </c>
@@ -22519,7 +22532,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="442" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>530330113004</v>
       </c>
@@ -22569,7 +22582,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="443" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>530330113005</v>
       </c>
@@ -22619,7 +22632,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="444" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>530330114011</v>
       </c>
@@ -22669,7 +22682,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="445" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>530330114012</v>
       </c>
@@ -22719,7 +22732,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="446" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>530330114013</v>
       </c>
@@ -22769,7 +22782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="447" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>530330114021</v>
       </c>
@@ -22819,7 +22832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="448" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>530330114022</v>
       </c>
@@ -22869,7 +22882,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="449" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>530330114023</v>
       </c>
@@ -22919,7 +22932,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="450" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>530330115001</v>
       </c>
@@ -22969,7 +22982,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="451" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>530330115002</v>
       </c>
@@ -23019,7 +23032,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="452" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>530330115003</v>
       </c>
@@ -23069,7 +23082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="453" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>530330116001</v>
       </c>
@@ -23119,7 +23132,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="454" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>530330116002</v>
       </c>
@@ -23169,7 +23182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="455" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>530330116003</v>
       </c>
@@ -23219,7 +23232,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="456" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>530330116004</v>
       </c>
@@ -23269,7 +23282,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="457" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>530330116005</v>
       </c>
@@ -23319,7 +23332,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="458" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>530330116006</v>
       </c>
@@ -23369,7 +23382,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="459" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>530330117001</v>
       </c>
@@ -23419,7 +23432,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="460" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>530330117002</v>
       </c>
@@ -23469,7 +23482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="461" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>530330117003</v>
       </c>
@@ -23519,7 +23532,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="462" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>530330117004</v>
       </c>
@@ -23569,7 +23582,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="463" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>530330118001</v>
       </c>
@@ -23619,7 +23632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="464" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>530330118002</v>
       </c>
@@ -23669,7 +23682,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="465" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>530330118003</v>
       </c>
@@ -23719,7 +23732,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>530330118004</v>
       </c>
@@ -23769,7 +23782,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="467" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>530330118005</v>
       </c>
@@ -23819,7 +23832,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="468" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>530330118006</v>
       </c>
@@ -23869,7 +23882,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>530330119001</v>
       </c>
@@ -23919,7 +23932,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>530330119002</v>
       </c>
@@ -23969,7 +23982,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="471" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>530330119003</v>
       </c>
@@ -24019,7 +24032,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="472" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>530330119004</v>
       </c>
@@ -24069,7 +24082,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="473" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>530330119005</v>
       </c>
@@ -24119,7 +24132,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="474" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>530330120001</v>
       </c>
@@ -24169,7 +24182,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="475" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>530330120002</v>
       </c>
@@ -24219,7 +24232,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="476" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>530330120003</v>
       </c>
@@ -24269,7 +24282,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="477" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>530330121001</v>
       </c>
@@ -24319,7 +24332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="478" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>530330121002</v>
       </c>
@@ -24369,7 +24382,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="479" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>530330260011</v>
       </c>
@@ -24416,7 +24429,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="480" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>530330264004</v>
       </c>
@@ -24463,7 +24476,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>530330264005</v>
       </c>
@@ -24510,7 +24523,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>530330265001</v>
       </c>
@@ -24560,7 +24573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="483" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>530339901000</v>
       </c>
@@ -24616,17 +24629,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" customWidth="1"/>
-    <col min="2" max="2" width="57.26953125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>27</v>
       </c>
@@ -24634,7 +24647,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -24642,7 +24655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -24650,7 +24663,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -24658,7 +24671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -24666,7 +24679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -24674,7 +24687,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -24682,7 +24695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -24690,7 +24703,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -24698,7 +24711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -24706,7 +24719,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -24714,7 +24727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -24722,7 +24735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -24730,7 +24743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -24738,7 +24751,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -24746,7 +24759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -24765,7 +24778,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
